--- a/sp500rank.xlsx
+++ b/sp500rank.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shuai/Documents/Academics/23F/Visualization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shuai/GitRepos/sbba/1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929FF051-BE6A-7D41-9931-F894F1BE0007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C02122E-636A-8048-A99F-337758C26D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="680" windowWidth="28040" windowHeight="17420" xr2:uid="{A7EDABCF-9245-5343-A24B-9D55397CA8F4}"/>
   </bookViews>
@@ -98,9 +98,6 @@
     <t>Berkshire Hathaway Class B</t>
   </si>
   <si>
-    <t>BRK.B</t>
-  </si>
-  <si>
     <t>Unitedhealth Group Incorporated</t>
   </si>
   <si>
@@ -3066,6 +3063,9 @@
   </si>
   <si>
     <t>Rank</t>
+  </si>
+  <si>
+    <t>BRK-B</t>
   </si>
 </sst>
 </file>
@@ -34146,7 +34146,7 @@
   <dimension ref="A1:G504"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34159,7 +34159,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -34310,7 +34310,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>1009</v>
       </c>
       <c r="D10" s="3">
         <v>1.7100000000000001E-2</v>
@@ -34323,10 +34323,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D11" s="3">
         <v>1.3100000000000001E-2</v>
@@ -34339,10 +34339,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D12" s="3">
         <v>1.23E-2</v>
@@ -34355,10 +34355,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D13" s="3">
         <v>1.17E-2</v>
@@ -34371,10 +34371,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D14" s="3">
         <v>1.0999999999999999E-2</v>
@@ -34387,10 +34387,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D15" s="3">
         <v>1.0800000000000001E-2</v>
@@ -34403,10 +34403,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D16" s="3">
         <v>1.06E-2</v>
@@ -34419,10 +34419,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D17" s="3">
         <v>9.4999999999999998E-3</v>
@@ -34435,10 +34435,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D18" s="3">
         <v>9.4000000000000004E-3</v>
@@ -34451,10 +34451,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D19" s="3">
         <v>8.8999999999999999E-3</v>
@@ -34467,10 +34467,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D20" s="3">
         <v>8.2000000000000007E-3</v>
@@ -34483,10 +34483,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D21" s="3">
         <v>7.4000000000000003E-3</v>
@@ -34499,10 +34499,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D22" s="3">
         <v>6.8999999999999999E-3</v>
@@ -34515,10 +34515,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D23" s="3">
         <v>6.7000000000000002E-3</v>
@@ -34531,10 +34531,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D24" s="3">
         <v>6.6E-3</v>
@@ -34547,10 +34547,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D25" s="3">
         <v>6.4000000000000003E-3</v>
@@ -34563,10 +34563,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D26" s="3">
         <v>6.1000000000000004E-3</v>
@@ -34579,10 +34579,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D27" s="3">
         <v>6.0000000000000001E-3</v>
@@ -34595,10 +34595,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D28" s="3">
         <v>5.8999999999999999E-3</v>
@@ -34611,10 +34611,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D29" s="3">
         <v>5.7000000000000002E-3</v>
@@ -34627,10 +34627,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="D30" s="3">
         <v>5.4999999999999997E-3</v>
@@ -34643,10 +34643,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="D31" s="3">
         <v>5.4999999999999997E-3</v>
@@ -34659,10 +34659,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="D32" s="3">
         <v>5.4000000000000003E-3</v>
@@ -34675,10 +34675,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D33" s="3">
         <v>5.3E-3</v>
@@ -34691,10 +34691,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="D34" s="3">
         <v>5.1999999999999998E-3</v>
@@ -34707,10 +34707,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D35" s="3">
         <v>5.1000000000000004E-3</v>
@@ -34723,10 +34723,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="D36" s="3">
         <v>5.1000000000000004E-3</v>
@@ -34739,10 +34739,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="D37" s="3">
         <v>4.8999999999999998E-3</v>
@@ -34755,10 +34755,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="D38" s="3">
         <v>4.7999999999999996E-3</v>
@@ -34771,10 +34771,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="D39" s="3">
         <v>4.7999999999999996E-3</v>
@@ -34787,10 +34787,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="D40" s="3">
         <v>4.5999999999999999E-3</v>
@@ -34803,10 +34803,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="D41" s="3">
         <v>4.4999999999999997E-3</v>
@@ -34819,10 +34819,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="D42" s="3">
         <v>4.4000000000000003E-3</v>
@@ -34835,10 +34835,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="D43" s="3">
         <v>4.4000000000000003E-3</v>
@@ -34851,10 +34851,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="D44" s="3">
         <v>4.1000000000000003E-3</v>
@@ -34867,10 +34867,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="D45" s="3">
         <v>4.1000000000000003E-3</v>
@@ -34883,10 +34883,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="D46" s="3">
         <v>4.1000000000000003E-3</v>
@@ -34899,10 +34899,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="D47" s="3">
         <v>3.8E-3</v>
@@ -34915,10 +34915,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="D48" s="3">
         <v>3.8E-3</v>
@@ -34931,10 +34931,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="D49" s="3">
         <v>3.7000000000000002E-3</v>
@@ -34947,10 +34947,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="D50" s="3">
         <v>3.7000000000000002E-3</v>
@@ -34963,10 +34963,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="D51" s="3">
         <v>3.7000000000000002E-3</v>
@@ -34979,10 +34979,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="D52" s="3">
         <v>3.5999999999999999E-3</v>
@@ -34995,10 +34995,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D53" s="3">
         <v>3.5999999999999999E-3</v>
@@ -35011,10 +35011,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="D54" s="3">
         <v>3.5000000000000001E-3</v>
@@ -35027,10 +35027,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D55" s="3">
         <v>3.5000000000000001E-3</v>
@@ -35043,10 +35043,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="D56" s="3">
         <v>3.5000000000000001E-3</v>
@@ -35059,10 +35059,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="D57" s="3">
         <v>3.5000000000000001E-3</v>
@@ -35075,10 +35075,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="D58" s="3">
         <v>3.3999999999999998E-3</v>
@@ -35091,10 +35091,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="D59" s="3">
         <v>3.3999999999999998E-3</v>
@@ -35107,10 +35107,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="D60" s="3">
         <v>3.3E-3</v>
@@ -35123,10 +35123,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="D61" s="3">
         <v>3.3E-3</v>
@@ -35139,10 +35139,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="D62" s="3">
         <v>3.2000000000000002E-3</v>
@@ -35155,10 +35155,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="D63" s="3">
         <v>3.0999999999999999E-3</v>
@@ -35171,10 +35171,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="D64" s="3">
         <v>3.0999999999999999E-3</v>
@@ -35187,10 +35187,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="D65" s="3">
         <v>3.0000000000000001E-3</v>
@@ -35203,10 +35203,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D66" s="3">
         <v>3.0000000000000001E-3</v>
@@ -35219,10 +35219,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="D67" s="3">
         <v>3.0000000000000001E-3</v>
@@ -35235,10 +35235,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="D68" s="3">
         <v>2.8999999999999998E-3</v>
@@ -35251,10 +35251,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="D69" s="3">
         <v>2.8999999999999998E-3</v>
@@ -35267,10 +35267,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="D70" s="3">
         <v>2.8999999999999998E-3</v>
@@ -35283,10 +35283,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="D71" s="3">
         <v>2.8999999999999998E-3</v>
@@ -35299,10 +35299,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="D72" s="3">
         <v>2.8E-3</v>
@@ -35315,10 +35315,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="D73" s="3">
         <v>2.7000000000000001E-3</v>
@@ -35331,10 +35331,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="D74" s="3">
         <v>2.7000000000000001E-3</v>
@@ -35347,10 +35347,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="D75" s="3">
         <v>2.7000000000000001E-3</v>
@@ -35363,10 +35363,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="D76" s="3">
         <v>2.7000000000000001E-3</v>
@@ -35379,10 +35379,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="D77" s="3">
         <v>2.7000000000000001E-3</v>
@@ -35395,10 +35395,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="D78" s="3">
         <v>2.5999999999999999E-3</v>
@@ -35411,10 +35411,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="D79" s="3">
         <v>2.5999999999999999E-3</v>
@@ -35427,10 +35427,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="D80" s="3">
         <v>2.5999999999999999E-3</v>
@@ -35443,10 +35443,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="D81" s="3">
         <v>2.5999999999999999E-3</v>
@@ -35459,10 +35459,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="D82" s="3">
         <v>2.5000000000000001E-3</v>
@@ -35475,10 +35475,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="D83" s="3">
         <v>2.5000000000000001E-3</v>
@@ -35491,10 +35491,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="D84" s="3">
         <v>2.5000000000000001E-3</v>
@@ -35507,10 +35507,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="D85" s="3">
         <v>2.5000000000000001E-3</v>
@@ -35523,10 +35523,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="D86" s="3">
         <v>2.5000000000000001E-3</v>
@@ -35539,10 +35539,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D87" s="3">
         <v>2.5000000000000001E-3</v>
@@ -35555,10 +35555,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="D88" s="3">
         <v>2.5000000000000001E-3</v>
@@ -35571,10 +35571,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="D89" s="3">
         <v>2.3999999999999998E-3</v>
@@ -35587,10 +35587,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="D90" s="3">
         <v>2.3999999999999998E-3</v>
@@ -35603,10 +35603,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="D91" s="3">
         <v>2.3999999999999998E-3</v>
@@ -35619,10 +35619,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="D92" s="3">
         <v>2.3E-3</v>
@@ -35635,10 +35635,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="D93" s="3">
         <v>2.3E-3</v>
@@ -35651,10 +35651,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="D94" s="3">
         <v>2.3E-3</v>
@@ -35667,10 +35667,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="D95" s="3">
         <v>2.3E-3</v>
@@ -35683,10 +35683,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="D96" s="3">
         <v>2.2000000000000001E-3</v>
@@ -35699,10 +35699,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="D97" s="3">
         <v>2.2000000000000001E-3</v>
@@ -35715,10 +35715,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="D98" s="3">
         <v>2.2000000000000001E-3</v>
@@ -35731,10 +35731,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="D99" s="3">
         <v>2.2000000000000001E-3</v>
@@ -35747,10 +35747,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="D100" s="3">
         <v>2.2000000000000001E-3</v>
@@ -35763,10 +35763,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="D101" s="3">
         <v>2.2000000000000001E-3</v>
@@ -35779,10 +35779,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="D102" s="3">
         <v>2.0999999999999999E-3</v>
@@ -35795,10 +35795,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="D103" s="3">
         <v>2.0999999999999999E-3</v>
@@ -35811,10 +35811,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="D104" s="3">
         <v>2E-3</v>
@@ -35827,10 +35827,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="D105" s="3">
         <v>2E-3</v>
@@ -35843,10 +35843,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="D106" s="3">
         <v>2E-3</v>
@@ -35859,10 +35859,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="D107" s="3">
         <v>2E-3</v>
@@ -35875,10 +35875,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="D108" s="3">
         <v>2E-3</v>
@@ -35891,10 +35891,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="D109" s="3">
         <v>2E-3</v>
@@ -35907,10 +35907,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="D110" s="3">
         <v>1.9E-3</v>
@@ -35923,10 +35923,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="D111" s="3">
         <v>1.9E-3</v>
@@ -35939,10 +35939,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="D112" s="3">
         <v>1.9E-3</v>
@@ -35955,10 +35955,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="D113" s="3">
         <v>1.9E-3</v>
@@ -35971,10 +35971,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="D114" s="3">
         <v>1.9E-3</v>
@@ -35987,10 +35987,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="D115" s="3">
         <v>1.8E-3</v>
@@ -36003,10 +36003,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="D116" s="3">
         <v>1.8E-3</v>
@@ -36019,10 +36019,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="D117" s="3">
         <v>1.6999999999999999E-3</v>
@@ -36035,10 +36035,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="D118" s="3">
         <v>1.6999999999999999E-3</v>
@@ -36051,10 +36051,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="D119" s="3">
         <v>1.6999999999999999E-3</v>
@@ -36067,10 +36067,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="D120" s="3">
         <v>1.6999999999999999E-3</v>
@@ -36083,10 +36083,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="D121" s="3">
         <v>1.6999999999999999E-3</v>
@@ -36099,10 +36099,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="D122" s="3">
         <v>1.6999999999999999E-3</v>
@@ -36115,10 +36115,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="D123" s="3">
         <v>1.6999999999999999E-3</v>
@@ -36131,10 +36131,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="D124" s="3">
         <v>1.6999999999999999E-3</v>
@@ -36147,10 +36147,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="D125" s="3">
         <v>1.6999999999999999E-3</v>
@@ -36163,10 +36163,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="D126" s="3">
         <v>1.6000000000000001E-3</v>
@@ -36179,10 +36179,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="D127" s="3">
         <v>1.6000000000000001E-3</v>
@@ -36195,10 +36195,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="D128" s="3">
         <v>1.6000000000000001E-3</v>
@@ -36211,10 +36211,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="D129" s="3">
         <v>1.6000000000000001E-3</v>
@@ -36227,10 +36227,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="D130" s="3">
         <v>1.6000000000000001E-3</v>
@@ -36243,10 +36243,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="D131" s="3">
         <v>1.6000000000000001E-3</v>
@@ -36259,10 +36259,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="D132" s="3">
         <v>1.5E-3</v>
@@ -36275,10 +36275,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="D133" s="3">
         <v>1.5E-3</v>
@@ -36291,10 +36291,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="D134" s="3">
         <v>1.5E-3</v>
@@ -36307,10 +36307,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="D135" s="3">
         <v>1.5E-3</v>
@@ -36323,10 +36323,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="D136" s="3">
         <v>1.5E-3</v>
@@ -36339,10 +36339,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="D137" s="3">
         <v>1.4E-3</v>
@@ -36355,10 +36355,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C138" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="D138" s="3">
         <v>1.4E-3</v>
@@ -36371,10 +36371,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="D139" s="3">
         <v>1.4E-3</v>
@@ -36387,10 +36387,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="D140" s="3">
         <v>1.4E-3</v>
@@ -36403,10 +36403,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="D141" s="3">
         <v>1.4E-3</v>
@@ -36419,10 +36419,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="D142" s="3">
         <v>1.4E-3</v>
@@ -36435,10 +36435,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="D143" s="3">
         <v>1.4E-3</v>
@@ -36451,10 +36451,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C144" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="D144" s="3">
         <v>1.4E-3</v>
@@ -36467,10 +36467,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="D145" s="3">
         <v>1.4E-3</v>
@@ -36483,10 +36483,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="D146" s="3">
         <v>1.4E-3</v>
@@ -36499,10 +36499,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="D147" s="3">
         <v>1.4E-3</v>
@@ -36515,10 +36515,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="D148" s="3">
         <v>1.4E-3</v>
@@ -36531,10 +36531,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="D149" s="3">
         <v>1.2999999999999999E-3</v>
@@ -36547,10 +36547,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="D150" s="3">
         <v>1.2999999999999999E-3</v>
@@ -36563,10 +36563,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="D151" s="3">
         <v>1.2999999999999999E-3</v>
@@ -36579,10 +36579,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="D152" s="3">
         <v>1.2999999999999999E-3</v>
@@ -36595,10 +36595,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="D153" s="3">
         <v>1.2999999999999999E-3</v>
@@ -36611,10 +36611,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="D154" s="3">
         <v>1.2999999999999999E-3</v>
@@ -36627,10 +36627,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="D155" s="3">
         <v>1.2999999999999999E-3</v>
@@ -36643,10 +36643,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="D156" s="3">
         <v>1.2999999999999999E-3</v>
@@ -36659,10 +36659,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="D157" s="3">
         <v>1.2999999999999999E-3</v>
@@ -36675,10 +36675,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="D158" s="3">
         <v>1.2999999999999999E-3</v>
@@ -36691,10 +36691,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="D159" s="3">
         <v>1.2999999999999999E-3</v>
@@ -36707,10 +36707,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="D160" s="3">
         <v>1.1999999999999999E-3</v>
@@ -36723,10 +36723,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="D161" s="3">
         <v>1.1999999999999999E-3</v>
@@ -36739,10 +36739,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="D162" s="3">
         <v>1.1999999999999999E-3</v>
@@ -36755,10 +36755,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C163" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="D163" s="3">
         <v>1.1999999999999999E-3</v>
@@ -36771,10 +36771,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C164" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="D164" s="3">
         <v>1.1999999999999999E-3</v>
@@ -36787,10 +36787,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C165" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="D165" s="3">
         <v>1.1999999999999999E-3</v>
@@ -36803,10 +36803,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="D166" s="3">
         <v>1.1999999999999999E-3</v>
@@ -36819,10 +36819,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C167" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="D167" s="3">
         <v>1.1999999999999999E-3</v>
@@ -36835,10 +36835,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C168" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="D168" s="3">
         <v>1.1999999999999999E-3</v>
@@ -36851,10 +36851,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C169" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="D169" s="3">
         <v>1.1999999999999999E-3</v>
@@ -36867,10 +36867,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C170" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>340</v>
       </c>
       <c r="D170" s="3">
         <v>1.1999999999999999E-3</v>
@@ -36883,10 +36883,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C171" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="D171" s="3">
         <v>1.1999999999999999E-3</v>
@@ -36899,10 +36899,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="D172" s="3">
         <v>1.1999999999999999E-3</v>
@@ -36915,10 +36915,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="D173" s="3">
         <v>1.1000000000000001E-3</v>
@@ -36931,10 +36931,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="D174" s="3">
         <v>1.1000000000000001E-3</v>
@@ -36947,10 +36947,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C175" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="D175" s="3">
         <v>1.1000000000000001E-3</v>
@@ -36963,10 +36963,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="D176" s="3">
         <v>1.1000000000000001E-3</v>
@@ -36979,10 +36979,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="D177" s="3">
         <v>1.1000000000000001E-3</v>
@@ -36995,10 +36995,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="D178" s="3">
         <v>1.1000000000000001E-3</v>
@@ -37011,10 +37011,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="D179" s="3">
         <v>1.1000000000000001E-3</v>
@@ -37027,10 +37027,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="D180" s="3">
         <v>1.1000000000000001E-3</v>
@@ -37043,10 +37043,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="D181" s="3">
         <v>1.1000000000000001E-3</v>
@@ -37059,10 +37059,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="D182" s="3">
         <v>1.1000000000000001E-3</v>
@@ -37075,10 +37075,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="D183" s="3">
         <v>1.1000000000000001E-3</v>
@@ -37091,10 +37091,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="D184" s="3">
         <v>1.1000000000000001E-3</v>
@@ -37107,10 +37107,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>370</v>
       </c>
       <c r="D185" s="3">
         <v>1.1000000000000001E-3</v>
@@ -37123,10 +37123,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="D186" s="3">
         <v>1.1000000000000001E-3</v>
@@ -37139,10 +37139,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="D187" s="3">
         <v>1.1000000000000001E-3</v>
@@ -37155,10 +37155,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="D188" s="3">
         <v>1.1000000000000001E-3</v>
@@ -37171,10 +37171,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="D189" s="3">
         <v>1.1000000000000001E-3</v>
@@ -37187,10 +37187,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="D190" s="3">
         <v>1E-3</v>
@@ -37203,10 +37203,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="D191" s="3">
         <v>1E-3</v>
@@ -37219,10 +37219,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>384</v>
       </c>
       <c r="D192" s="3">
         <v>1E-3</v>
@@ -37235,10 +37235,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="D193" s="3">
         <v>1E-3</v>
@@ -37251,10 +37251,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="D194" s="3">
         <v>1E-3</v>
@@ -37267,10 +37267,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>390</v>
       </c>
       <c r="D195" s="3">
         <v>1E-3</v>
@@ -37283,10 +37283,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C196" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="D196" s="3">
         <v>1E-3</v>
@@ -37299,10 +37299,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="D197" s="3">
         <v>1E-3</v>
@@ -37315,10 +37315,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>396</v>
       </c>
       <c r="D198" s="3">
         <v>1E-3</v>
@@ -37331,10 +37331,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C199" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="D199" s="3">
         <v>1E-3</v>
@@ -37347,10 +37347,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="D200" s="3">
         <v>1E-3</v>
@@ -37363,10 +37363,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C201" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="D201" s="3">
         <v>1E-3</v>
@@ -37379,10 +37379,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="D202" s="3">
         <v>1E-3</v>
@@ -37395,10 +37395,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="D203" s="3">
         <v>1E-3</v>
@@ -37411,10 +37411,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C204" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="D204" s="3">
         <v>1E-3</v>
@@ -37427,10 +37427,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C205" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="D205" s="3">
         <v>1E-3</v>
@@ -37443,10 +37443,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="D206" s="3">
         <v>1E-3</v>
@@ -37459,10 +37459,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C207" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="D207" s="3">
         <v>1E-3</v>
@@ -37475,10 +37475,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="D208" s="3">
         <v>1E-3</v>
@@ -37491,10 +37491,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="D209" s="3">
         <v>1E-3</v>
@@ -37507,10 +37507,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="D210" s="3">
         <v>1E-3</v>
@@ -37523,10 +37523,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="D211" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37539,10 +37539,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="D212" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37555,10 +37555,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="D213" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37571,10 +37571,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="D214" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37587,10 +37587,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="D215" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37603,10 +37603,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C216" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="D216" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37619,10 +37619,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="D217" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37635,10 +37635,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="D218" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37651,10 +37651,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C219" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>438</v>
       </c>
       <c r="D219" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37667,10 +37667,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C220" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="D220" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37683,10 +37683,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="D221" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37699,10 +37699,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C222" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="D222" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37715,10 +37715,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C223" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="D223" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37731,10 +37731,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="D224" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37747,10 +37747,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="D225" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37763,10 +37763,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C226" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>452</v>
       </c>
       <c r="D226" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37779,10 +37779,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C227" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="D227" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37795,10 +37795,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C228" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>456</v>
       </c>
       <c r="D228" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37811,10 +37811,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C229" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="D229" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37827,10 +37827,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C230" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="D230" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37843,10 +37843,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C231" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>462</v>
       </c>
       <c r="D231" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37859,10 +37859,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C232" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>464</v>
       </c>
       <c r="D232" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37875,10 +37875,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C233" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="D233" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37891,10 +37891,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C234" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>468</v>
       </c>
       <c r="D234" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37907,10 +37907,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C235" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>470</v>
       </c>
       <c r="D235" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37923,10 +37923,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C236" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="D236" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37939,10 +37939,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>474</v>
       </c>
       <c r="D237" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37955,10 +37955,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C238" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>476</v>
       </c>
       <c r="D238" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37971,10 +37971,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C239" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="D239" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37987,10 +37987,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C240" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>480</v>
       </c>
       <c r="D240" s="3">
         <v>8.0000000000000004E-4</v>
@@ -38003,10 +38003,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C241" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>482</v>
       </c>
       <c r="D241" s="3">
         <v>8.0000000000000004E-4</v>
@@ -38019,10 +38019,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C242" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="D242" s="3">
         <v>8.0000000000000004E-4</v>
@@ -38035,10 +38035,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>486</v>
       </c>
       <c r="D243" s="3">
         <v>8.0000000000000004E-4</v>
@@ -38051,10 +38051,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C244" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>488</v>
       </c>
       <c r="D244" s="3">
         <v>8.0000000000000004E-4</v>
@@ -38067,10 +38067,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C245" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>490</v>
       </c>
       <c r="D245" s="3">
         <v>8.0000000000000004E-4</v>
@@ -38083,10 +38083,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C246" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>492</v>
       </c>
       <c r="D246" s="3">
         <v>8.0000000000000004E-4</v>
@@ -38099,10 +38099,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>494</v>
       </c>
       <c r="D247" s="3">
         <v>8.0000000000000004E-4</v>
@@ -38115,10 +38115,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C248" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>496</v>
       </c>
       <c r="D248" s="3">
         <v>8.0000000000000004E-4</v>
@@ -38131,10 +38131,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>498</v>
       </c>
       <c r="D249" s="3">
         <v>8.0000000000000004E-4</v>
@@ -38147,10 +38147,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>500</v>
       </c>
       <c r="D250" s="3">
         <v>8.0000000000000004E-4</v>
@@ -38163,10 +38163,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>502</v>
       </c>
       <c r="D251" s="3">
         <v>8.0000000000000004E-4</v>
@@ -38179,10 +38179,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C252" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="D252" s="3">
         <v>8.0000000000000004E-4</v>
@@ -38195,10 +38195,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>506</v>
       </c>
       <c r="D253" s="3">
         <v>8.0000000000000004E-4</v>
@@ -38211,10 +38211,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C254" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="D254" s="3">
         <v>8.0000000000000004E-4</v>
@@ -38227,10 +38227,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C255" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="D255" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38243,10 +38243,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C256" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>512</v>
       </c>
       <c r="D256" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38259,10 +38259,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C257" s="2" t="s">
         <v>513</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>514</v>
       </c>
       <c r="D257" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38275,10 +38275,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C258" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>516</v>
       </c>
       <c r="D258" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38291,10 +38291,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C259" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>518</v>
       </c>
       <c r="D259" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38307,10 +38307,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C260" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>520</v>
       </c>
       <c r="D260" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38323,10 +38323,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C261" s="2" t="s">
         <v>521</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>522</v>
       </c>
       <c r="D261" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38339,10 +38339,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C262" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>524</v>
       </c>
       <c r="D262" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38355,10 +38355,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C263" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="D263" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38371,10 +38371,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C264" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>528</v>
       </c>
       <c r="D264" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38387,10 +38387,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C265" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>530</v>
       </c>
       <c r="D265" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38403,10 +38403,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C266" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>532</v>
       </c>
       <c r="D266" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38419,10 +38419,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C267" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>534</v>
       </c>
       <c r="D267" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38435,10 +38435,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C268" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>536</v>
       </c>
       <c r="D268" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38451,10 +38451,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C269" s="2" t="s">
         <v>537</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>538</v>
       </c>
       <c r="D269" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38467,10 +38467,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C270" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>540</v>
       </c>
       <c r="D270" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38483,10 +38483,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C271" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>542</v>
       </c>
       <c r="D271" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38499,10 +38499,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C272" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>544</v>
       </c>
       <c r="D272" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38515,10 +38515,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C273" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>546</v>
       </c>
       <c r="D273" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38531,10 +38531,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C274" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="D274" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38547,10 +38547,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C275" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="D275" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38563,10 +38563,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C276" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>552</v>
       </c>
       <c r="D276" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38579,10 +38579,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C277" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>554</v>
       </c>
       <c r="D277" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38595,10 +38595,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C278" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>556</v>
       </c>
       <c r="D278" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38611,10 +38611,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C279" s="2" t="s">
         <v>557</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>558</v>
       </c>
       <c r="D279" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38627,10 +38627,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C280" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>560</v>
       </c>
       <c r="D280" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38643,10 +38643,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C281" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>562</v>
       </c>
       <c r="D281" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38659,10 +38659,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C282" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>564</v>
       </c>
       <c r="D282" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38675,10 +38675,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C283" s="2" t="s">
         <v>565</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>566</v>
       </c>
       <c r="D283" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38691,10 +38691,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C284" s="2" t="s">
         <v>567</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>568</v>
       </c>
       <c r="D284" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38707,10 +38707,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C285" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>570</v>
       </c>
       <c r="D285" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38723,10 +38723,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C286" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="D286" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38739,10 +38739,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C287" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>574</v>
       </c>
       <c r="D287" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38755,10 +38755,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C288" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>576</v>
       </c>
       <c r="D288" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38771,10 +38771,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C289" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>578</v>
       </c>
       <c r="D289" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38787,10 +38787,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C290" s="2" t="s">
         <v>579</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>580</v>
       </c>
       <c r="D290" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38803,10 +38803,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C291" s="2" t="s">
         <v>581</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>582</v>
       </c>
       <c r="D291" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38819,10 +38819,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C292" s="2" t="s">
         <v>583</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>584</v>
       </c>
       <c r="D292" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38835,10 +38835,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C293" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>586</v>
       </c>
       <c r="D293" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38851,10 +38851,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C294" s="2" t="s">
         <v>587</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>588</v>
       </c>
       <c r="D294" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38867,10 +38867,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C295" s="2" t="s">
         <v>589</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>590</v>
       </c>
       <c r="D295" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38883,10 +38883,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C296" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>592</v>
       </c>
       <c r="D296" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38899,10 +38899,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C297" s="2" t="s">
         <v>593</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>594</v>
       </c>
       <c r="D297" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38915,10 +38915,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C298" s="2" t="s">
         <v>595</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>596</v>
       </c>
       <c r="D298" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38931,10 +38931,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C299" s="2" t="s">
         <v>597</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>598</v>
       </c>
       <c r="D299" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38947,10 +38947,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C300" s="2" t="s">
         <v>599</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>600</v>
       </c>
       <c r="D300" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38963,10 +38963,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C301" s="2" t="s">
         <v>601</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>602</v>
       </c>
       <c r="D301" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38979,10 +38979,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C302" s="2" t="s">
         <v>603</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>604</v>
       </c>
       <c r="D302" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38995,10 +38995,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C303" s="2" t="s">
         <v>605</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>606</v>
       </c>
       <c r="D303" s="3">
         <v>5.9999999999999995E-4</v>
@@ -39011,10 +39011,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C304" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>608</v>
       </c>
       <c r="D304" s="3">
         <v>5.9999999999999995E-4</v>
@@ -39027,10 +39027,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C305" s="2" t="s">
         <v>609</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>610</v>
       </c>
       <c r="D305" s="3">
         <v>5.9999999999999995E-4</v>
@@ -39043,10 +39043,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C306" s="2" t="s">
         <v>611</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>612</v>
       </c>
       <c r="D306" s="3">
         <v>5.9999999999999995E-4</v>
@@ -39059,10 +39059,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C307" s="2" t="s">
         <v>613</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>614</v>
       </c>
       <c r="D307" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39075,10 +39075,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C308" s="2" t="s">
         <v>615</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>616</v>
       </c>
       <c r="D308" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39091,10 +39091,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C309" s="2" t="s">
         <v>617</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>618</v>
       </c>
       <c r="D309" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39107,10 +39107,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C310" s="2" t="s">
         <v>619</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>620</v>
       </c>
       <c r="D310" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39123,10 +39123,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C311" s="2" t="s">
         <v>621</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>622</v>
       </c>
       <c r="D311" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39139,10 +39139,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C312" s="2" t="s">
         <v>623</v>
-      </c>
-      <c r="C312" s="2" t="s">
-        <v>624</v>
       </c>
       <c r="D312" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39155,10 +39155,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C313" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>626</v>
       </c>
       <c r="D313" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39171,10 +39171,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C314" s="2" t="s">
         <v>627</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>628</v>
       </c>
       <c r="D314" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39187,10 +39187,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C315" s="2" t="s">
         <v>629</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>630</v>
       </c>
       <c r="D315" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39203,10 +39203,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C316" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>632</v>
       </c>
       <c r="D316" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39219,10 +39219,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C317" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>634</v>
       </c>
       <c r="D317" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39235,10 +39235,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C318" s="2" t="s">
         <v>635</v>
-      </c>
-      <c r="C318" s="2" t="s">
-        <v>636</v>
       </c>
       <c r="D318" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39251,10 +39251,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C319" s="2" t="s">
         <v>637</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>638</v>
       </c>
       <c r="D319" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39267,10 +39267,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C320" s="2" t="s">
         <v>639</v>
-      </c>
-      <c r="C320" s="2" t="s">
-        <v>640</v>
       </c>
       <c r="D320" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39283,10 +39283,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C321" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="C321" s="2" t="s">
-        <v>642</v>
       </c>
       <c r="D321" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39299,10 +39299,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C322" s="2" t="s">
         <v>643</v>
-      </c>
-      <c r="C322" s="2" t="s">
-        <v>644</v>
       </c>
       <c r="D322" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39315,10 +39315,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C323" s="2" t="s">
         <v>645</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>646</v>
       </c>
       <c r="D323" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39331,10 +39331,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C324" s="2" t="s">
         <v>647</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>648</v>
       </c>
       <c r="D324" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39347,10 +39347,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C325" s="2" t="s">
         <v>649</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>650</v>
       </c>
       <c r="D325" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39363,10 +39363,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C326" s="2" t="s">
         <v>651</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>652</v>
       </c>
       <c r="D326" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39379,10 +39379,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C327" s="2" t="s">
         <v>653</v>
-      </c>
-      <c r="C327" s="2" t="s">
-        <v>654</v>
       </c>
       <c r="D327" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39395,10 +39395,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C328" s="2" t="s">
         <v>655</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>656</v>
       </c>
       <c r="D328" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39411,10 +39411,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C329" s="2" t="s">
         <v>657</v>
-      </c>
-      <c r="C329" s="2" t="s">
-        <v>658</v>
       </c>
       <c r="D329" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39427,10 +39427,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C330" s="2" t="s">
         <v>659</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>660</v>
       </c>
       <c r="D330" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39443,10 +39443,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C331" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="C331" s="2" t="s">
-        <v>662</v>
       </c>
       <c r="D331" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39459,10 +39459,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C332" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>664</v>
       </c>
       <c r="D332" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39475,10 +39475,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C333" s="2" t="s">
         <v>665</v>
-      </c>
-      <c r="C333" s="2" t="s">
-        <v>666</v>
       </c>
       <c r="D333" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39491,10 +39491,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C334" s="2" t="s">
         <v>667</v>
-      </c>
-      <c r="C334" s="2" t="s">
-        <v>668</v>
       </c>
       <c r="D334" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39507,10 +39507,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C335" s="2" t="s">
         <v>669</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>670</v>
       </c>
       <c r="D335" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39523,10 +39523,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C336" s="2" t="s">
         <v>671</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>672</v>
       </c>
       <c r="D336" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39539,10 +39539,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C337" s="2" t="s">
         <v>673</v>
-      </c>
-      <c r="C337" s="2" t="s">
-        <v>674</v>
       </c>
       <c r="D337" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39555,10 +39555,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C338" s="2" t="s">
         <v>675</v>
-      </c>
-      <c r="C338" s="2" t="s">
-        <v>676</v>
       </c>
       <c r="D338" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39571,10 +39571,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C339" s="2" t="s">
         <v>677</v>
-      </c>
-      <c r="C339" s="2" t="s">
-        <v>678</v>
       </c>
       <c r="D339" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39587,10 +39587,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C340" s="2" t="s">
         <v>679</v>
-      </c>
-      <c r="C340" s="2" t="s">
-        <v>680</v>
       </c>
       <c r="D340" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39603,10 +39603,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C341" s="2" t="s">
         <v>681</v>
-      </c>
-      <c r="C341" s="2" t="s">
-        <v>682</v>
       </c>
       <c r="D341" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39619,10 +39619,10 @@
         <v>341</v>
       </c>
       <c r="B342" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C342" s="2" t="s">
         <v>683</v>
-      </c>
-      <c r="C342" s="2" t="s">
-        <v>684</v>
       </c>
       <c r="D342" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39635,10 +39635,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C343" s="2" t="s">
         <v>685</v>
-      </c>
-      <c r="C343" s="2" t="s">
-        <v>686</v>
       </c>
       <c r="D343" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39651,10 +39651,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C344" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="C344" s="2" t="s">
-        <v>688</v>
       </c>
       <c r="D344" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39667,10 +39667,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C345" s="2" t="s">
         <v>689</v>
-      </c>
-      <c r="C345" s="2" t="s">
-        <v>690</v>
       </c>
       <c r="D345" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39683,10 +39683,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C346" s="2" t="s">
         <v>691</v>
-      </c>
-      <c r="C346" s="2" t="s">
-        <v>692</v>
       </c>
       <c r="D346" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39699,10 +39699,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="C347" s="2" t="s">
         <v>693</v>
-      </c>
-      <c r="C347" s="2" t="s">
-        <v>694</v>
       </c>
       <c r="D347" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39715,10 +39715,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="C348" s="2" t="s">
         <v>695</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>696</v>
       </c>
       <c r="D348" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39731,10 +39731,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C349" s="2" t="s">
         <v>697</v>
-      </c>
-      <c r="C349" s="2" t="s">
-        <v>698</v>
       </c>
       <c r="D349" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39747,10 +39747,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C350" s="2" t="s">
         <v>699</v>
-      </c>
-      <c r="C350" s="2" t="s">
-        <v>700</v>
       </c>
       <c r="D350" s="3">
         <v>4.0000000000000002E-4</v>
@@ -39763,10 +39763,10 @@
         <v>350</v>
       </c>
       <c r="B351" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C351" s="2" t="s">
         <v>701</v>
-      </c>
-      <c r="C351" s="2" t="s">
-        <v>702</v>
       </c>
       <c r="D351" s="3">
         <v>4.0000000000000002E-4</v>
@@ -39779,10 +39779,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C352" s="2" t="s">
         <v>703</v>
-      </c>
-      <c r="C352" s="2" t="s">
-        <v>704</v>
       </c>
       <c r="D352" s="3">
         <v>4.0000000000000002E-4</v>
@@ -39795,10 +39795,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C353" s="2" t="s">
         <v>705</v>
-      </c>
-      <c r="C353" s="2" t="s">
-        <v>706</v>
       </c>
       <c r="D353" s="3">
         <v>4.0000000000000002E-4</v>
@@ -39811,10 +39811,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C354" s="2" t="s">
         <v>707</v>
-      </c>
-      <c r="C354" s="2" t="s">
-        <v>708</v>
       </c>
       <c r="D354" s="3">
         <v>4.0000000000000002E-4</v>
@@ -39827,10 +39827,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C355" s="2" t="s">
         <v>709</v>
-      </c>
-      <c r="C355" s="2" t="s">
-        <v>710</v>
       </c>
       <c r="D355" s="3">
         <v>4.0000000000000002E-4</v>
@@ -39843,10 +39843,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C356" s="2" t="s">
         <v>711</v>
-      </c>
-      <c r="C356" s="2" t="s">
-        <v>712</v>
       </c>
       <c r="D356" s="3">
         <v>4.0000000000000002E-4</v>
@@ -39859,10 +39859,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C357" s="2" t="s">
         <v>713</v>
-      </c>
-      <c r="C357" s="2" t="s">
-        <v>714</v>
       </c>
       <c r="D357" s="3">
         <v>4.0000000000000002E-4</v>
@@ -39875,10 +39875,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C358" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="C358" s="2" t="s">
-        <v>716</v>
       </c>
       <c r="D358" s="3">
         <v>4.0000000000000002E-4</v>
@@ -39891,10 +39891,10 @@
         <v>358</v>
       </c>
       <c r="B359" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C359" s="2" t="s">
         <v>717</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>718</v>
       </c>
       <c r="D359" s="3">
         <v>4.0000000000000002E-4</v>
@@ -39907,10 +39907,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C360" s="2" t="s">
         <v>719</v>
-      </c>
-      <c r="C360" s="2" t="s">
-        <v>720</v>
       </c>
       <c r="D360" s="3">
         <v>4.0000000000000002E-4</v>
@@ -39923,10 +39923,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C361" s="2" t="s">
         <v>721</v>
-      </c>
-      <c r="C361" s="2" t="s">
-        <v>722</v>
       </c>
       <c r="D361" s="3">
         <v>4.0000000000000002E-4</v>
@@ -39939,10 +39939,10 @@
         <v>361</v>
       </c>
       <c r="B362" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C362" s="2" t="s">
         <v>723</v>
-      </c>
-      <c r="C362" s="2" t="s">
-        <v>724</v>
       </c>
       <c r="D362" s="3">
         <v>4.0000000000000002E-4</v>
@@ -39955,10 +39955,10 @@
         <v>362</v>
       </c>
       <c r="B363" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C363" s="2" t="s">
         <v>725</v>
-      </c>
-      <c r="C363" s="2" t="s">
-        <v>726</v>
       </c>
       <c r="D363" s="3">
         <v>4.0000000000000002E-4</v>
@@ -39971,10 +39971,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C364" s="2" t="s">
         <v>727</v>
-      </c>
-      <c r="C364" s="2" t="s">
-        <v>728</v>
       </c>
       <c r="D364" s="3">
         <v>4.0000000000000002E-4</v>
@@ -39987,10 +39987,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C365" s="2" t="s">
         <v>729</v>
-      </c>
-      <c r="C365" s="2" t="s">
-        <v>730</v>
       </c>
       <c r="D365" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40003,10 +40003,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C366" s="2" t="s">
         <v>731</v>
-      </c>
-      <c r="C366" s="2" t="s">
-        <v>732</v>
       </c>
       <c r="D366" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40019,10 +40019,10 @@
         <v>366</v>
       </c>
       <c r="B367" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C367" s="2" t="s">
         <v>733</v>
-      </c>
-      <c r="C367" s="2" t="s">
-        <v>734</v>
       </c>
       <c r="D367" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40035,10 +40035,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C368" s="2" t="s">
         <v>735</v>
-      </c>
-      <c r="C368" s="2" t="s">
-        <v>736</v>
       </c>
       <c r="D368" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40051,10 +40051,10 @@
         <v>368</v>
       </c>
       <c r="B369" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C369" s="2" t="s">
         <v>737</v>
-      </c>
-      <c r="C369" s="2" t="s">
-        <v>738</v>
       </c>
       <c r="D369" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40067,10 +40067,10 @@
         <v>369</v>
       </c>
       <c r="B370" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C370" s="2" t="s">
         <v>739</v>
-      </c>
-      <c r="C370" s="2" t="s">
-        <v>740</v>
       </c>
       <c r="D370" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40083,10 +40083,10 @@
         <v>370</v>
       </c>
       <c r="B371" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C371" s="2" t="s">
         <v>741</v>
-      </c>
-      <c r="C371" s="2" t="s">
-        <v>742</v>
       </c>
       <c r="D371" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40099,10 +40099,10 @@
         <v>371</v>
       </c>
       <c r="B372" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C372" s="2" t="s">
         <v>743</v>
-      </c>
-      <c r="C372" s="2" t="s">
-        <v>744</v>
       </c>
       <c r="D372" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40115,10 +40115,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C373" s="2" t="s">
         <v>745</v>
-      </c>
-      <c r="C373" s="2" t="s">
-        <v>746</v>
       </c>
       <c r="D373" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40131,10 +40131,10 @@
         <v>373</v>
       </c>
       <c r="B374" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C374" s="2" t="s">
         <v>747</v>
-      </c>
-      <c r="C374" s="2" t="s">
-        <v>748</v>
       </c>
       <c r="D374" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40147,10 +40147,10 @@
         <v>374</v>
       </c>
       <c r="B375" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C375" s="2" t="s">
         <v>749</v>
-      </c>
-      <c r="C375" s="2" t="s">
-        <v>750</v>
       </c>
       <c r="D375" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40163,10 +40163,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C376" s="2" t="s">
         <v>751</v>
-      </c>
-      <c r="C376" s="2" t="s">
-        <v>752</v>
       </c>
       <c r="D376" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40179,10 +40179,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C377" s="2" t="s">
         <v>753</v>
-      </c>
-      <c r="C377" s="2" t="s">
-        <v>754</v>
       </c>
       <c r="D377" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40195,10 +40195,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="C378" s="2" t="s">
         <v>755</v>
-      </c>
-      <c r="C378" s="2" t="s">
-        <v>756</v>
       </c>
       <c r="D378" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40211,10 +40211,10 @@
         <v>378</v>
       </c>
       <c r="B379" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="C379" s="2" t="s">
         <v>757</v>
-      </c>
-      <c r="C379" s="2" t="s">
-        <v>758</v>
       </c>
       <c r="D379" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40227,10 +40227,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="C380" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="C380" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="D380" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40243,10 +40243,10 @@
         <v>380</v>
       </c>
       <c r="B381" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="C381" s="2" t="s">
         <v>761</v>
-      </c>
-      <c r="C381" s="2" t="s">
-        <v>762</v>
       </c>
       <c r="D381" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40259,10 +40259,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="C382" s="2" t="s">
         <v>763</v>
-      </c>
-      <c r="C382" s="2" t="s">
-        <v>764</v>
       </c>
       <c r="D382" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40275,10 +40275,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="C383" s="2" t="s">
         <v>765</v>
-      </c>
-      <c r="C383" s="2" t="s">
-        <v>766</v>
       </c>
       <c r="D383" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40291,10 +40291,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="C384" s="2" t="s">
         <v>767</v>
-      </c>
-      <c r="C384" s="2" t="s">
-        <v>768</v>
       </c>
       <c r="D384" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40307,10 +40307,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="C385" s="2" t="s">
         <v>769</v>
-      </c>
-      <c r="C385" s="2" t="s">
-        <v>770</v>
       </c>
       <c r="D385" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40323,10 +40323,10 @@
         <v>385</v>
       </c>
       <c r="B386" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C386" s="2" t="s">
         <v>771</v>
-      </c>
-      <c r="C386" s="2" t="s">
-        <v>772</v>
       </c>
       <c r="D386" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40339,10 +40339,10 @@
         <v>386</v>
       </c>
       <c r="B387" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C387" s="2" t="s">
         <v>773</v>
-      </c>
-      <c r="C387" s="2" t="s">
-        <v>774</v>
       </c>
       <c r="D387" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40355,10 +40355,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C388" s="2" t="s">
         <v>775</v>
-      </c>
-      <c r="C388" s="2" t="s">
-        <v>776</v>
       </c>
       <c r="D388" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40371,10 +40371,10 @@
         <v>388</v>
       </c>
       <c r="B389" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="C389" s="2" t="s">
         <v>777</v>
-      </c>
-      <c r="C389" s="2" t="s">
-        <v>778</v>
       </c>
       <c r="D389" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40387,10 +40387,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="C390" s="2" t="s">
         <v>779</v>
-      </c>
-      <c r="C390" s="2" t="s">
-        <v>780</v>
       </c>
       <c r="D390" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40403,10 +40403,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="C391" s="2" t="s">
         <v>781</v>
-      </c>
-      <c r="C391" s="2" t="s">
-        <v>782</v>
       </c>
       <c r="D391" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40419,10 +40419,10 @@
         <v>391</v>
       </c>
       <c r="B392" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C392" s="2" t="s">
         <v>783</v>
-      </c>
-      <c r="C392" s="2" t="s">
-        <v>784</v>
       </c>
       <c r="D392" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40435,10 +40435,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C393" s="2" t="s">
         <v>785</v>
-      </c>
-      <c r="C393" s="2" t="s">
-        <v>786</v>
       </c>
       <c r="D393" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40451,10 +40451,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="C394" s="2" t="s">
         <v>787</v>
-      </c>
-      <c r="C394" s="2" t="s">
-        <v>788</v>
       </c>
       <c r="D394" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40467,10 +40467,10 @@
         <v>394</v>
       </c>
       <c r="B395" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C395" s="2" t="s">
         <v>789</v>
-      </c>
-      <c r="C395" s="2" t="s">
-        <v>790</v>
       </c>
       <c r="D395" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40483,10 +40483,10 @@
         <v>395</v>
       </c>
       <c r="B396" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C396" s="2" t="s">
         <v>791</v>
-      </c>
-      <c r="C396" s="2" t="s">
-        <v>792</v>
       </c>
       <c r="D396" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40499,10 +40499,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C397" s="2" t="s">
         <v>793</v>
-      </c>
-      <c r="C397" s="2" t="s">
-        <v>794</v>
       </c>
       <c r="D397" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40515,10 +40515,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="C398" s="2" t="s">
         <v>795</v>
-      </c>
-      <c r="C398" s="2" t="s">
-        <v>796</v>
       </c>
       <c r="D398" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40531,10 +40531,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C399" s="2" t="s">
         <v>797</v>
-      </c>
-      <c r="C399" s="2" t="s">
-        <v>798</v>
       </c>
       <c r="D399" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40547,10 +40547,10 @@
         <v>399</v>
       </c>
       <c r="B400" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="C400" s="2" t="s">
         <v>799</v>
-      </c>
-      <c r="C400" s="2" t="s">
-        <v>800</v>
       </c>
       <c r="D400" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40563,10 +40563,10 @@
         <v>400</v>
       </c>
       <c r="B401" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="C401" s="2" t="s">
         <v>801</v>
-      </c>
-      <c r="C401" s="2" t="s">
-        <v>802</v>
       </c>
       <c r="D401" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40579,10 +40579,10 @@
         <v>401</v>
       </c>
       <c r="B402" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="C402" s="2" t="s">
         <v>803</v>
-      </c>
-      <c r="C402" s="2" t="s">
-        <v>804</v>
       </c>
       <c r="D402" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40595,10 +40595,10 @@
         <v>402</v>
       </c>
       <c r="B403" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="C403" s="2" t="s">
         <v>805</v>
-      </c>
-      <c r="C403" s="2" t="s">
-        <v>806</v>
       </c>
       <c r="D403" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40611,10 +40611,10 @@
         <v>403</v>
       </c>
       <c r="B404" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="C404" s="2" t="s">
         <v>807</v>
-      </c>
-      <c r="C404" s="2" t="s">
-        <v>808</v>
       </c>
       <c r="D404" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40627,10 +40627,10 @@
         <v>404</v>
       </c>
       <c r="B405" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C405" s="2" t="s">
         <v>809</v>
-      </c>
-      <c r="C405" s="2" t="s">
-        <v>810</v>
       </c>
       <c r="D405" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40643,10 +40643,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="C406" s="2" t="s">
         <v>811</v>
-      </c>
-      <c r="C406" s="2" t="s">
-        <v>812</v>
       </c>
       <c r="D406" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40659,10 +40659,10 @@
         <v>406</v>
       </c>
       <c r="B407" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="C407" s="2" t="s">
         <v>813</v>
-      </c>
-      <c r="C407" s="2" t="s">
-        <v>814</v>
       </c>
       <c r="D407" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40675,10 +40675,10 @@
         <v>407</v>
       </c>
       <c r="B408" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="C408" s="2" t="s">
         <v>815</v>
-      </c>
-      <c r="C408" s="2" t="s">
-        <v>816</v>
       </c>
       <c r="D408" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40691,10 +40691,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="C409" s="2" t="s">
         <v>817</v>
-      </c>
-      <c r="C409" s="2" t="s">
-        <v>818</v>
       </c>
       <c r="D409" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40707,10 +40707,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="C410" s="2" t="s">
         <v>819</v>
-      </c>
-      <c r="C410" s="2" t="s">
-        <v>820</v>
       </c>
       <c r="D410" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40723,10 +40723,10 @@
         <v>410</v>
       </c>
       <c r="B411" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C411" s="2" t="s">
         <v>821</v>
-      </c>
-      <c r="C411" s="2" t="s">
-        <v>822</v>
       </c>
       <c r="D411" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40739,10 +40739,10 @@
         <v>411</v>
       </c>
       <c r="B412" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="C412" s="2" t="s">
         <v>823</v>
-      </c>
-      <c r="C412" s="2" t="s">
-        <v>824</v>
       </c>
       <c r="D412" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40755,10 +40755,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="C413" s="2" t="s">
         <v>825</v>
-      </c>
-      <c r="C413" s="2" t="s">
-        <v>826</v>
       </c>
       <c r="D413" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40771,10 +40771,10 @@
         <v>413</v>
       </c>
       <c r="B414" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="C414" s="2" t="s">
         <v>827</v>
-      </c>
-      <c r="C414" s="2" t="s">
-        <v>828</v>
       </c>
       <c r="D414" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40787,10 +40787,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C415" s="2" t="s">
         <v>829</v>
-      </c>
-      <c r="C415" s="2" t="s">
-        <v>830</v>
       </c>
       <c r="D415" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40803,10 +40803,10 @@
         <v>415</v>
       </c>
       <c r="B416" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="C416" s="2" t="s">
         <v>831</v>
-      </c>
-      <c r="C416" s="2" t="s">
-        <v>832</v>
       </c>
       <c r="D416" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40819,10 +40819,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="C417" s="2" t="s">
         <v>833</v>
-      </c>
-      <c r="C417" s="2" t="s">
-        <v>834</v>
       </c>
       <c r="D417" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40835,10 +40835,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="C418" s="2" t="s">
         <v>835</v>
-      </c>
-      <c r="C418" s="2" t="s">
-        <v>836</v>
       </c>
       <c r="D418" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40851,10 +40851,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C419" s="2" t="s">
         <v>837</v>
-      </c>
-      <c r="C419" s="2" t="s">
-        <v>838</v>
       </c>
       <c r="D419" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40867,10 +40867,10 @@
         <v>419</v>
       </c>
       <c r="B420" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="C420" s="2" t="s">
         <v>839</v>
-      </c>
-      <c r="C420" s="2" t="s">
-        <v>840</v>
       </c>
       <c r="D420" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40883,10 +40883,10 @@
         <v>420</v>
       </c>
       <c r="B421" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C421" s="2" t="s">
         <v>841</v>
-      </c>
-      <c r="C421" s="2" t="s">
-        <v>842</v>
       </c>
       <c r="D421" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40899,10 +40899,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C422" s="2" t="s">
         <v>843</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>844</v>
       </c>
       <c r="D422" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40915,10 +40915,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="C423" s="2" t="s">
         <v>845</v>
-      </c>
-      <c r="C423" s="2" t="s">
-        <v>846</v>
       </c>
       <c r="D423" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40931,10 +40931,10 @@
         <v>423</v>
       </c>
       <c r="B424" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="C424" s="2" t="s">
         <v>847</v>
-      </c>
-      <c r="C424" s="2" t="s">
-        <v>848</v>
       </c>
       <c r="D424" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40947,10 +40947,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="C425" s="2" t="s">
         <v>849</v>
-      </c>
-      <c r="C425" s="2" t="s">
-        <v>850</v>
       </c>
       <c r="D425" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40963,10 +40963,10 @@
         <v>425</v>
       </c>
       <c r="B426" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="C426" s="2" t="s">
         <v>851</v>
-      </c>
-      <c r="C426" s="2" t="s">
-        <v>852</v>
       </c>
       <c r="D426" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40979,10 +40979,10 @@
         <v>426</v>
       </c>
       <c r="B427" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="C427" s="2" t="s">
         <v>853</v>
-      </c>
-      <c r="C427" s="2" t="s">
-        <v>854</v>
       </c>
       <c r="D427" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40995,10 +40995,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="C428" s="2" t="s">
         <v>855</v>
-      </c>
-      <c r="C428" s="2" t="s">
-        <v>856</v>
       </c>
       <c r="D428" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41011,10 +41011,10 @@
         <v>428</v>
       </c>
       <c r="B429" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="C429" s="2" t="s">
         <v>857</v>
-      </c>
-      <c r="C429" s="2" t="s">
-        <v>858</v>
       </c>
       <c r="D429" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41027,10 +41027,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C430" s="2" t="s">
         <v>859</v>
-      </c>
-      <c r="C430" s="2" t="s">
-        <v>860</v>
       </c>
       <c r="D430" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41043,10 +41043,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C431" s="2" t="s">
         <v>861</v>
-      </c>
-      <c r="C431" s="2" t="s">
-        <v>862</v>
       </c>
       <c r="D431" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41059,10 +41059,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="C432" s="2" t="s">
         <v>863</v>
-      </c>
-      <c r="C432" s="2" t="s">
-        <v>864</v>
       </c>
       <c r="D432" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41075,10 +41075,10 @@
         <v>432</v>
       </c>
       <c r="B433" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="C433" s="2" t="s">
         <v>865</v>
-      </c>
-      <c r="C433" s="2" t="s">
-        <v>866</v>
       </c>
       <c r="D433" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41091,10 +41091,10 @@
         <v>433</v>
       </c>
       <c r="B434" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="C434" s="2" t="s">
         <v>867</v>
-      </c>
-      <c r="C434" s="2" t="s">
-        <v>868</v>
       </c>
       <c r="D434" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41107,10 +41107,10 @@
         <v>434</v>
       </c>
       <c r="B435" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="C435" s="2" t="s">
         <v>869</v>
-      </c>
-      <c r="C435" s="2" t="s">
-        <v>870</v>
       </c>
       <c r="D435" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41123,10 +41123,10 @@
         <v>435</v>
       </c>
       <c r="B436" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="C436" s="2" t="s">
         <v>871</v>
-      </c>
-      <c r="C436" s="2" t="s">
-        <v>872</v>
       </c>
       <c r="D436" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41139,10 +41139,10 @@
         <v>436</v>
       </c>
       <c r="B437" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="C437" s="2" t="s">
         <v>873</v>
-      </c>
-      <c r="C437" s="2" t="s">
-        <v>874</v>
       </c>
       <c r="D437" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41155,10 +41155,10 @@
         <v>437</v>
       </c>
       <c r="B438" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="C438" s="2" t="s">
         <v>875</v>
-      </c>
-      <c r="C438" s="2" t="s">
-        <v>876</v>
       </c>
       <c r="D438" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41171,10 +41171,10 @@
         <v>438</v>
       </c>
       <c r="B439" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="C439" s="2" t="s">
         <v>877</v>
-      </c>
-      <c r="C439" s="2" t="s">
-        <v>878</v>
       </c>
       <c r="D439" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41187,10 +41187,10 @@
         <v>439</v>
       </c>
       <c r="B440" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="C440" s="2" t="s">
         <v>879</v>
-      </c>
-      <c r="C440" s="2" t="s">
-        <v>880</v>
       </c>
       <c r="D440" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41203,10 +41203,10 @@
         <v>440</v>
       </c>
       <c r="B441" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="C441" s="2" t="s">
         <v>881</v>
-      </c>
-      <c r="C441" s="2" t="s">
-        <v>882</v>
       </c>
       <c r="D441" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41219,10 +41219,10 @@
         <v>441</v>
       </c>
       <c r="B442" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="C442" s="2" t="s">
         <v>883</v>
-      </c>
-      <c r="C442" s="2" t="s">
-        <v>884</v>
       </c>
       <c r="D442" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41235,10 +41235,10 @@
         <v>442</v>
       </c>
       <c r="B443" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="C443" s="2" t="s">
         <v>885</v>
-      </c>
-      <c r="C443" s="2" t="s">
-        <v>886</v>
       </c>
       <c r="D443" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41251,10 +41251,10 @@
         <v>443</v>
       </c>
       <c r="B444" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="C444" s="2" t="s">
         <v>887</v>
-      </c>
-      <c r="C444" s="2" t="s">
-        <v>888</v>
       </c>
       <c r="D444" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41267,10 +41267,10 @@
         <v>444</v>
       </c>
       <c r="B445" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="C445" s="2" t="s">
         <v>889</v>
-      </c>
-      <c r="C445" s="2" t="s">
-        <v>890</v>
       </c>
       <c r="D445" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41283,10 +41283,10 @@
         <v>445</v>
       </c>
       <c r="B446" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="C446" s="2" t="s">
         <v>891</v>
-      </c>
-      <c r="C446" s="2" t="s">
-        <v>892</v>
       </c>
       <c r="D446" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41299,10 +41299,10 @@
         <v>446</v>
       </c>
       <c r="B447" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="C447" s="2" t="s">
         <v>893</v>
-      </c>
-      <c r="C447" s="2" t="s">
-        <v>894</v>
       </c>
       <c r="D447" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41315,10 +41315,10 @@
         <v>447</v>
       </c>
       <c r="B448" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="C448" s="2" t="s">
         <v>895</v>
-      </c>
-      <c r="C448" s="2" t="s">
-        <v>896</v>
       </c>
       <c r="D448" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41331,10 +41331,10 @@
         <v>448</v>
       </c>
       <c r="B449" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="C449" s="2" t="s">
         <v>897</v>
-      </c>
-      <c r="C449" s="2" t="s">
-        <v>898</v>
       </c>
       <c r="D449" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41347,10 +41347,10 @@
         <v>449</v>
       </c>
       <c r="B450" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="C450" s="2" t="s">
         <v>899</v>
-      </c>
-      <c r="C450" s="2" t="s">
-        <v>900</v>
       </c>
       <c r="D450" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41363,10 +41363,10 @@
         <v>450</v>
       </c>
       <c r="B451" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="C451" s="2" t="s">
         <v>901</v>
-      </c>
-      <c r="C451" s="2" t="s">
-        <v>902</v>
       </c>
       <c r="D451" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41379,10 +41379,10 @@
         <v>451</v>
       </c>
       <c r="B452" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="C452" s="2" t="s">
         <v>903</v>
-      </c>
-      <c r="C452" s="2" t="s">
-        <v>904</v>
       </c>
       <c r="D452" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41395,10 +41395,10 @@
         <v>452</v>
       </c>
       <c r="B453" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="C453" s="2" t="s">
         <v>905</v>
-      </c>
-      <c r="C453" s="2" t="s">
-        <v>906</v>
       </c>
       <c r="D453" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41411,10 +41411,10 @@
         <v>453</v>
       </c>
       <c r="B454" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="C454" s="2" t="s">
         <v>907</v>
-      </c>
-      <c r="C454" s="2" t="s">
-        <v>908</v>
       </c>
       <c r="D454" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41427,10 +41427,10 @@
         <v>454</v>
       </c>
       <c r="B455" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="C455" s="2" t="s">
         <v>909</v>
-      </c>
-      <c r="C455" s="2" t="s">
-        <v>910</v>
       </c>
       <c r="D455" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41443,10 +41443,10 @@
         <v>455</v>
       </c>
       <c r="B456" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="C456" s="2" t="s">
         <v>911</v>
-      </c>
-      <c r="C456" s="2" t="s">
-        <v>912</v>
       </c>
       <c r="D456" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41459,10 +41459,10 @@
         <v>456</v>
       </c>
       <c r="B457" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="C457" s="2" t="s">
         <v>913</v>
-      </c>
-      <c r="C457" s="2" t="s">
-        <v>914</v>
       </c>
       <c r="D457" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41475,10 +41475,10 @@
         <v>457</v>
       </c>
       <c r="B458" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="C458" s="2" t="s">
         <v>915</v>
-      </c>
-      <c r="C458" s="2" t="s">
-        <v>916</v>
       </c>
       <c r="D458" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41491,10 +41491,10 @@
         <v>458</v>
       </c>
       <c r="B459" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="C459" s="2" t="s">
         <v>917</v>
-      </c>
-      <c r="C459" s="2" t="s">
-        <v>918</v>
       </c>
       <c r="D459" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41507,10 +41507,10 @@
         <v>459</v>
       </c>
       <c r="B460" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="C460" s="2" t="s">
         <v>919</v>
-      </c>
-      <c r="C460" s="2" t="s">
-        <v>920</v>
       </c>
       <c r="D460" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41523,10 +41523,10 @@
         <v>460</v>
       </c>
       <c r="B461" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="C461" s="2" t="s">
         <v>921</v>
-      </c>
-      <c r="C461" s="2" t="s">
-        <v>922</v>
       </c>
       <c r="D461" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41539,10 +41539,10 @@
         <v>461</v>
       </c>
       <c r="B462" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="C462" s="2" t="s">
         <v>923</v>
-      </c>
-      <c r="C462" s="2" t="s">
-        <v>924</v>
       </c>
       <c r="D462" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41555,10 +41555,10 @@
         <v>462</v>
       </c>
       <c r="B463" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="C463" s="2" t="s">
         <v>925</v>
-      </c>
-      <c r="C463" s="2" t="s">
-        <v>926</v>
       </c>
       <c r="D463" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41571,10 +41571,10 @@
         <v>463</v>
       </c>
       <c r="B464" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="C464" s="2" t="s">
         <v>927</v>
-      </c>
-      <c r="C464" s="2" t="s">
-        <v>928</v>
       </c>
       <c r="D464" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41587,10 +41587,10 @@
         <v>464</v>
       </c>
       <c r="B465" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C465" s="2" t="s">
         <v>929</v>
-      </c>
-      <c r="C465" s="2" t="s">
-        <v>930</v>
       </c>
       <c r="D465" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41603,10 +41603,10 @@
         <v>465</v>
       </c>
       <c r="B466" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="C466" s="2" t="s">
         <v>931</v>
-      </c>
-      <c r="C466" s="2" t="s">
-        <v>932</v>
       </c>
       <c r="D466" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41619,10 +41619,10 @@
         <v>466</v>
       </c>
       <c r="B467" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="C467" s="2" t="s">
         <v>933</v>
-      </c>
-      <c r="C467" s="2" t="s">
-        <v>934</v>
       </c>
       <c r="D467" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41635,10 +41635,10 @@
         <v>467</v>
       </c>
       <c r="B468" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="C468" s="2" t="s">
         <v>935</v>
-      </c>
-      <c r="C468" s="2" t="s">
-        <v>936</v>
       </c>
       <c r="D468" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41651,10 +41651,10 @@
         <v>468</v>
       </c>
       <c r="B469" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="C469" s="2" t="s">
         <v>937</v>
-      </c>
-      <c r="C469" s="2" t="s">
-        <v>938</v>
       </c>
       <c r="D469" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41667,10 +41667,10 @@
         <v>469</v>
       </c>
       <c r="B470" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="C470" s="2" t="s">
         <v>939</v>
-      </c>
-      <c r="C470" s="2" t="s">
-        <v>940</v>
       </c>
       <c r="D470" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41683,10 +41683,10 @@
         <v>470</v>
       </c>
       <c r="B471" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="C471" s="2" t="s">
         <v>941</v>
-      </c>
-      <c r="C471" s="2" t="s">
-        <v>942</v>
       </c>
       <c r="D471" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41699,10 +41699,10 @@
         <v>471</v>
       </c>
       <c r="B472" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C472" s="2" t="s">
         <v>943</v>
-      </c>
-      <c r="C472" s="2" t="s">
-        <v>944</v>
       </c>
       <c r="D472" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41715,10 +41715,10 @@
         <v>472</v>
       </c>
       <c r="B473" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="C473" s="2" t="s">
         <v>945</v>
-      </c>
-      <c r="C473" s="2" t="s">
-        <v>946</v>
       </c>
       <c r="D473" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41731,10 +41731,10 @@
         <v>473</v>
       </c>
       <c r="B474" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C474" s="2" t="s">
         <v>947</v>
-      </c>
-      <c r="C474" s="2" t="s">
-        <v>948</v>
       </c>
       <c r="D474" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41747,10 +41747,10 @@
         <v>474</v>
       </c>
       <c r="B475" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="C475" s="2" t="s">
         <v>949</v>
-      </c>
-      <c r="C475" s="2" t="s">
-        <v>950</v>
       </c>
       <c r="D475" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41763,10 +41763,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="C476" s="2" t="s">
         <v>951</v>
-      </c>
-      <c r="C476" s="2" t="s">
-        <v>952</v>
       </c>
       <c r="D476" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41779,10 +41779,10 @@
         <v>476</v>
       </c>
       <c r="B477" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="C477" s="2" t="s">
         <v>953</v>
-      </c>
-      <c r="C477" s="2" t="s">
-        <v>954</v>
       </c>
       <c r="D477" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41795,10 +41795,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="C478" s="2" t="s">
         <v>955</v>
-      </c>
-      <c r="C478" s="2" t="s">
-        <v>956</v>
       </c>
       <c r="D478" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41811,10 +41811,10 @@
         <v>478</v>
       </c>
       <c r="B479" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="C479" s="2" t="s">
         <v>957</v>
-      </c>
-      <c r="C479" s="2" t="s">
-        <v>958</v>
       </c>
       <c r="D479" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41827,10 +41827,10 @@
         <v>479</v>
       </c>
       <c r="B480" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="C480" s="2" t="s">
         <v>959</v>
-      </c>
-      <c r="C480" s="2" t="s">
-        <v>960</v>
       </c>
       <c r="D480" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41843,10 +41843,10 @@
         <v>480</v>
       </c>
       <c r="B481" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="C481" s="2" t="s">
         <v>961</v>
-      </c>
-      <c r="C481" s="2" t="s">
-        <v>962</v>
       </c>
       <c r="D481" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41859,10 +41859,10 @@
         <v>481</v>
       </c>
       <c r="B482" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C482" s="2" t="s">
         <v>963</v>
-      </c>
-      <c r="C482" s="2" t="s">
-        <v>964</v>
       </c>
       <c r="D482" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41875,10 +41875,10 @@
         <v>482</v>
       </c>
       <c r="B483" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="C483" s="2" t="s">
         <v>965</v>
-      </c>
-      <c r="C483" s="2" t="s">
-        <v>966</v>
       </c>
       <c r="D483" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41891,10 +41891,10 @@
         <v>483</v>
       </c>
       <c r="B484" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="C484" s="2" t="s">
         <v>967</v>
-      </c>
-      <c r="C484" s="2" t="s">
-        <v>968</v>
       </c>
       <c r="D484" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41907,10 +41907,10 @@
         <v>484</v>
       </c>
       <c r="B485" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="C485" s="2" t="s">
         <v>969</v>
-      </c>
-      <c r="C485" s="2" t="s">
-        <v>970</v>
       </c>
       <c r="D485" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41923,10 +41923,10 @@
         <v>485</v>
       </c>
       <c r="B486" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="C486" s="2" t="s">
         <v>971</v>
-      </c>
-      <c r="C486" s="2" t="s">
-        <v>972</v>
       </c>
       <c r="D486" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41939,10 +41939,10 @@
         <v>486</v>
       </c>
       <c r="B487" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="C487" s="2" t="s">
         <v>973</v>
-      </c>
-      <c r="C487" s="2" t="s">
-        <v>974</v>
       </c>
       <c r="D487" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41955,10 +41955,10 @@
         <v>487</v>
       </c>
       <c r="B488" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="C488" s="2" t="s">
         <v>975</v>
-      </c>
-      <c r="C488" s="2" t="s">
-        <v>976</v>
       </c>
       <c r="D488" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41971,10 +41971,10 @@
         <v>488</v>
       </c>
       <c r="B489" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="C489" s="2" t="s">
         <v>977</v>
-      </c>
-      <c r="C489" s="2" t="s">
-        <v>978</v>
       </c>
       <c r="D489" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41987,10 +41987,10 @@
         <v>489</v>
       </c>
       <c r="B490" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="C490" s="2" t="s">
         <v>979</v>
-      </c>
-      <c r="C490" s="2" t="s">
-        <v>980</v>
       </c>
       <c r="D490" s="3">
         <v>2.0000000000000001E-4</v>
@@ -42003,10 +42003,10 @@
         <v>490</v>
       </c>
       <c r="B491" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="C491" s="2" t="s">
         <v>981</v>
-      </c>
-      <c r="C491" s="2" t="s">
-        <v>982</v>
       </c>
       <c r="D491" s="3">
         <v>2.0000000000000001E-4</v>
@@ -42019,10 +42019,10 @@
         <v>491</v>
       </c>
       <c r="B492" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="C492" s="2" t="s">
         <v>983</v>
-      </c>
-      <c r="C492" s="2" t="s">
-        <v>984</v>
       </c>
       <c r="D492" s="3">
         <v>2.0000000000000001E-4</v>
@@ -42035,10 +42035,10 @@
         <v>492</v>
       </c>
       <c r="B493" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="C493" s="2" t="s">
         <v>985</v>
-      </c>
-      <c r="C493" s="2" t="s">
-        <v>986</v>
       </c>
       <c r="D493" s="3">
         <v>2.0000000000000001E-4</v>
@@ -42051,10 +42051,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="C494" s="2" t="s">
         <v>987</v>
-      </c>
-      <c r="C494" s="2" t="s">
-        <v>988</v>
       </c>
       <c r="D494" s="3">
         <v>1E-4</v>
@@ -42067,10 +42067,10 @@
         <v>494</v>
       </c>
       <c r="B495" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="C495" s="2" t="s">
         <v>989</v>
-      </c>
-      <c r="C495" s="2" t="s">
-        <v>990</v>
       </c>
       <c r="D495" s="3">
         <v>1E-4</v>
@@ -42083,10 +42083,10 @@
         <v>495</v>
       </c>
       <c r="B496" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="C496" s="2" t="s">
         <v>991</v>
-      </c>
-      <c r="C496" s="2" t="s">
-        <v>992</v>
       </c>
       <c r="D496" s="3">
         <v>1E-4</v>
@@ -42099,10 +42099,10 @@
         <v>496</v>
       </c>
       <c r="B497" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="C497" s="2" t="s">
         <v>993</v>
-      </c>
-      <c r="C497" s="2" t="s">
-        <v>994</v>
       </c>
       <c r="D497" s="3">
         <v>1E-4</v>
@@ -42115,10 +42115,10 @@
         <v>497</v>
       </c>
       <c r="B498" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="C498" s="2" t="s">
         <v>995</v>
-      </c>
-      <c r="C498" s="2" t="s">
-        <v>996</v>
       </c>
       <c r="D498" s="3">
         <v>1E-4</v>
@@ -42131,10 +42131,10 @@
         <v>498</v>
       </c>
       <c r="B499" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="C499" s="2" t="s">
         <v>997</v>
-      </c>
-      <c r="C499" s="2" t="s">
-        <v>998</v>
       </c>
       <c r="D499" s="3">
         <v>1E-4</v>
@@ -42147,10 +42147,10 @@
         <v>499</v>
       </c>
       <c r="B500" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="C500" s="2" t="s">
         <v>999</v>
-      </c>
-      <c r="C500" s="2" t="s">
-        <v>1000</v>
       </c>
       <c r="D500" s="3">
         <v>1E-4</v>
@@ -42163,10 +42163,10 @@
         <v>500</v>
       </c>
       <c r="B501" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C501" s="2" t="s">
         <v>1001</v>
-      </c>
-      <c r="C501" s="2" t="s">
-        <v>1002</v>
       </c>
       <c r="D501" s="3">
         <v>1E-4</v>
@@ -42179,10 +42179,10 @@
         <v>501</v>
       </c>
       <c r="B502" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C502" s="2" t="s">
         <v>1003</v>
-      </c>
-      <c r="C502" s="2" t="s">
-        <v>1004</v>
       </c>
       <c r="D502" s="3">
         <v>1E-4</v>
@@ -42195,10 +42195,10 @@
         <v>502</v>
       </c>
       <c r="B503" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C503" s="2" t="s">
         <v>1005</v>
-      </c>
-      <c r="C503" s="2" t="s">
-        <v>1006</v>
       </c>
       <c r="D503" s="3">
         <v>1E-4</v>
@@ -42211,10 +42211,10 @@
         <v>503</v>
       </c>
       <c r="B504" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C504" s="2" t="s">
         <v>1007</v>
-      </c>
-      <c r="C504" s="2" t="s">
-        <v>1008</v>
       </c>
       <c r="D504" s="3">
         <v>1E-4</v>

--- a/sp500rank.xlsx
+++ b/sp500rank.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shuai/Documents/Academics/23F/Visualization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shuai/GitRepos/sbba/4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929FF051-BE6A-7D41-9931-F894F1BE0007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E704CD82-E6F8-0048-86BC-0973C006C4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="680" windowWidth="28040" windowHeight="17420" xr2:uid="{A7EDABCF-9245-5343-A24B-9D55397CA8F4}"/>
   </bookViews>
@@ -98,9 +98,6 @@
     <t>Berkshire Hathaway Class B</t>
   </si>
   <si>
-    <t>BRK.B</t>
-  </si>
-  <si>
     <t>Unitedhealth Group Incorporated</t>
   </si>
   <si>
@@ -3066,6 +3063,9 @@
   </si>
   <si>
     <t>Rank</t>
+  </si>
+  <si>
+    <t>BRK-B</t>
   </si>
 </sst>
 </file>
@@ -34146,7 +34146,7 @@
   <dimension ref="A1:G504"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34159,7 +34159,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -34310,7 +34310,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>1009</v>
       </c>
       <c r="D10" s="3">
         <v>1.7100000000000001E-2</v>
@@ -34323,10 +34323,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D11" s="3">
         <v>1.3100000000000001E-2</v>
@@ -34339,10 +34339,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D12" s="3">
         <v>1.23E-2</v>
@@ -34355,10 +34355,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D13" s="3">
         <v>1.17E-2</v>
@@ -34371,10 +34371,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D14" s="3">
         <v>1.0999999999999999E-2</v>
@@ -34387,10 +34387,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D15" s="3">
         <v>1.0800000000000001E-2</v>
@@ -34403,10 +34403,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D16" s="3">
         <v>1.06E-2</v>
@@ -34419,10 +34419,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D17" s="3">
         <v>9.4999999999999998E-3</v>
@@ -34435,10 +34435,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D18" s="3">
         <v>9.4000000000000004E-3</v>
@@ -34451,10 +34451,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D19" s="3">
         <v>8.8999999999999999E-3</v>
@@ -34467,10 +34467,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D20" s="3">
         <v>8.2000000000000007E-3</v>
@@ -34483,10 +34483,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D21" s="3">
         <v>7.4000000000000003E-3</v>
@@ -34499,10 +34499,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D22" s="3">
         <v>6.8999999999999999E-3</v>
@@ -34515,10 +34515,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D23" s="3">
         <v>6.7000000000000002E-3</v>
@@ -34531,10 +34531,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D24" s="3">
         <v>6.6E-3</v>
@@ -34547,10 +34547,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D25" s="3">
         <v>6.4000000000000003E-3</v>
@@ -34563,10 +34563,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D26" s="3">
         <v>6.1000000000000004E-3</v>
@@ -34579,10 +34579,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D27" s="3">
         <v>6.0000000000000001E-3</v>
@@ -34595,10 +34595,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D28" s="3">
         <v>5.8999999999999999E-3</v>
@@ -34611,10 +34611,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D29" s="3">
         <v>5.7000000000000002E-3</v>
@@ -34627,10 +34627,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="D30" s="3">
         <v>5.4999999999999997E-3</v>
@@ -34643,10 +34643,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="D31" s="3">
         <v>5.4999999999999997E-3</v>
@@ -34659,10 +34659,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="D32" s="3">
         <v>5.4000000000000003E-3</v>
@@ -34675,10 +34675,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D33" s="3">
         <v>5.3E-3</v>
@@ -34691,10 +34691,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="D34" s="3">
         <v>5.1999999999999998E-3</v>
@@ -34707,10 +34707,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D35" s="3">
         <v>5.1000000000000004E-3</v>
@@ -34723,10 +34723,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="D36" s="3">
         <v>5.1000000000000004E-3</v>
@@ -34739,10 +34739,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="D37" s="3">
         <v>4.8999999999999998E-3</v>
@@ -34755,10 +34755,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="D38" s="3">
         <v>4.7999999999999996E-3</v>
@@ -34771,10 +34771,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="D39" s="3">
         <v>4.7999999999999996E-3</v>
@@ -34787,10 +34787,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="D40" s="3">
         <v>4.5999999999999999E-3</v>
@@ -34803,10 +34803,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="D41" s="3">
         <v>4.4999999999999997E-3</v>
@@ -34819,10 +34819,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="D42" s="3">
         <v>4.4000000000000003E-3</v>
@@ -34835,10 +34835,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="D43" s="3">
         <v>4.4000000000000003E-3</v>
@@ -34851,10 +34851,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="D44" s="3">
         <v>4.1000000000000003E-3</v>
@@ -34867,10 +34867,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="D45" s="3">
         <v>4.1000000000000003E-3</v>
@@ -34883,10 +34883,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="D46" s="3">
         <v>4.1000000000000003E-3</v>
@@ -34899,10 +34899,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="D47" s="3">
         <v>3.8E-3</v>
@@ -34915,10 +34915,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="D48" s="3">
         <v>3.8E-3</v>
@@ -34931,10 +34931,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="D49" s="3">
         <v>3.7000000000000002E-3</v>
@@ -34947,10 +34947,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="D50" s="3">
         <v>3.7000000000000002E-3</v>
@@ -34963,10 +34963,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="D51" s="3">
         <v>3.7000000000000002E-3</v>
@@ -34979,10 +34979,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="D52" s="3">
         <v>3.5999999999999999E-3</v>
@@ -34995,10 +34995,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D53" s="3">
         <v>3.5999999999999999E-3</v>
@@ -35011,10 +35011,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="D54" s="3">
         <v>3.5000000000000001E-3</v>
@@ -35027,10 +35027,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D55" s="3">
         <v>3.5000000000000001E-3</v>
@@ -35043,10 +35043,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="D56" s="3">
         <v>3.5000000000000001E-3</v>
@@ -35059,10 +35059,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="D57" s="3">
         <v>3.5000000000000001E-3</v>
@@ -35075,10 +35075,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="D58" s="3">
         <v>3.3999999999999998E-3</v>
@@ -35091,10 +35091,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="D59" s="3">
         <v>3.3999999999999998E-3</v>
@@ -35107,10 +35107,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="D60" s="3">
         <v>3.3E-3</v>
@@ -35123,10 +35123,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="D61" s="3">
         <v>3.3E-3</v>
@@ -35139,10 +35139,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="D62" s="3">
         <v>3.2000000000000002E-3</v>
@@ -35155,10 +35155,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="D63" s="3">
         <v>3.0999999999999999E-3</v>
@@ -35171,10 +35171,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="D64" s="3">
         <v>3.0999999999999999E-3</v>
@@ -35187,10 +35187,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="D65" s="3">
         <v>3.0000000000000001E-3</v>
@@ -35203,10 +35203,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D66" s="3">
         <v>3.0000000000000001E-3</v>
@@ -35219,10 +35219,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="D67" s="3">
         <v>3.0000000000000001E-3</v>
@@ -35235,10 +35235,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="D68" s="3">
         <v>2.8999999999999998E-3</v>
@@ -35251,10 +35251,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="D69" s="3">
         <v>2.8999999999999998E-3</v>
@@ -35267,10 +35267,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="D70" s="3">
         <v>2.8999999999999998E-3</v>
@@ -35283,10 +35283,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="D71" s="3">
         <v>2.8999999999999998E-3</v>
@@ -35299,10 +35299,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="D72" s="3">
         <v>2.8E-3</v>
@@ -35315,10 +35315,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="D73" s="3">
         <v>2.7000000000000001E-3</v>
@@ -35331,10 +35331,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="D74" s="3">
         <v>2.7000000000000001E-3</v>
@@ -35347,10 +35347,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="D75" s="3">
         <v>2.7000000000000001E-3</v>
@@ -35363,10 +35363,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="D76" s="3">
         <v>2.7000000000000001E-3</v>
@@ -35379,10 +35379,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="D77" s="3">
         <v>2.7000000000000001E-3</v>
@@ -35395,10 +35395,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="D78" s="3">
         <v>2.5999999999999999E-3</v>
@@ -35411,10 +35411,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="D79" s="3">
         <v>2.5999999999999999E-3</v>
@@ -35427,10 +35427,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="D80" s="3">
         <v>2.5999999999999999E-3</v>
@@ -35443,10 +35443,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="D81" s="3">
         <v>2.5999999999999999E-3</v>
@@ -35459,10 +35459,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="D82" s="3">
         <v>2.5000000000000001E-3</v>
@@ -35475,10 +35475,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="D83" s="3">
         <v>2.5000000000000001E-3</v>
@@ -35491,10 +35491,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="D84" s="3">
         <v>2.5000000000000001E-3</v>
@@ -35507,10 +35507,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="D85" s="3">
         <v>2.5000000000000001E-3</v>
@@ -35523,10 +35523,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="D86" s="3">
         <v>2.5000000000000001E-3</v>
@@ -35539,10 +35539,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D87" s="3">
         <v>2.5000000000000001E-3</v>
@@ -35555,10 +35555,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="D88" s="3">
         <v>2.5000000000000001E-3</v>
@@ -35571,10 +35571,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="D89" s="3">
         <v>2.3999999999999998E-3</v>
@@ -35587,10 +35587,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="D90" s="3">
         <v>2.3999999999999998E-3</v>
@@ -35603,10 +35603,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="D91" s="3">
         <v>2.3999999999999998E-3</v>
@@ -35619,10 +35619,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="D92" s="3">
         <v>2.3E-3</v>
@@ -35635,10 +35635,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="D93" s="3">
         <v>2.3E-3</v>
@@ -35651,10 +35651,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="D94" s="3">
         <v>2.3E-3</v>
@@ -35667,10 +35667,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="D95" s="3">
         <v>2.3E-3</v>
@@ -35683,10 +35683,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="D96" s="3">
         <v>2.2000000000000001E-3</v>
@@ -35699,10 +35699,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="D97" s="3">
         <v>2.2000000000000001E-3</v>
@@ -35715,10 +35715,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="D98" s="3">
         <v>2.2000000000000001E-3</v>
@@ -35731,10 +35731,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="D99" s="3">
         <v>2.2000000000000001E-3</v>
@@ -35747,10 +35747,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="D100" s="3">
         <v>2.2000000000000001E-3</v>
@@ -35763,10 +35763,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="D101" s="3">
         <v>2.2000000000000001E-3</v>
@@ -35779,10 +35779,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="D102" s="3">
         <v>2.0999999999999999E-3</v>
@@ -35795,10 +35795,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="D103" s="3">
         <v>2.0999999999999999E-3</v>
@@ -35811,10 +35811,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="D104" s="3">
         <v>2E-3</v>
@@ -35827,10 +35827,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="D105" s="3">
         <v>2E-3</v>
@@ -35843,10 +35843,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="D106" s="3">
         <v>2E-3</v>
@@ -35859,10 +35859,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="D107" s="3">
         <v>2E-3</v>
@@ -35875,10 +35875,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="D108" s="3">
         <v>2E-3</v>
@@ -35891,10 +35891,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="D109" s="3">
         <v>2E-3</v>
@@ -35907,10 +35907,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="D110" s="3">
         <v>1.9E-3</v>
@@ -35923,10 +35923,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="D111" s="3">
         <v>1.9E-3</v>
@@ -35939,10 +35939,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="D112" s="3">
         <v>1.9E-3</v>
@@ -35955,10 +35955,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="D113" s="3">
         <v>1.9E-3</v>
@@ -35971,10 +35971,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="D114" s="3">
         <v>1.9E-3</v>
@@ -35987,10 +35987,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="D115" s="3">
         <v>1.8E-3</v>
@@ -36003,10 +36003,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="D116" s="3">
         <v>1.8E-3</v>
@@ -36019,10 +36019,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="D117" s="3">
         <v>1.6999999999999999E-3</v>
@@ -36035,10 +36035,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="D118" s="3">
         <v>1.6999999999999999E-3</v>
@@ -36051,10 +36051,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="D119" s="3">
         <v>1.6999999999999999E-3</v>
@@ -36067,10 +36067,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="D120" s="3">
         <v>1.6999999999999999E-3</v>
@@ -36083,10 +36083,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="D121" s="3">
         <v>1.6999999999999999E-3</v>
@@ -36099,10 +36099,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="D122" s="3">
         <v>1.6999999999999999E-3</v>
@@ -36115,10 +36115,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="D123" s="3">
         <v>1.6999999999999999E-3</v>
@@ -36131,10 +36131,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="D124" s="3">
         <v>1.6999999999999999E-3</v>
@@ -36147,10 +36147,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="D125" s="3">
         <v>1.6999999999999999E-3</v>
@@ -36163,10 +36163,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="D126" s="3">
         <v>1.6000000000000001E-3</v>
@@ -36179,10 +36179,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="D127" s="3">
         <v>1.6000000000000001E-3</v>
@@ -36195,10 +36195,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="D128" s="3">
         <v>1.6000000000000001E-3</v>
@@ -36211,10 +36211,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="D129" s="3">
         <v>1.6000000000000001E-3</v>
@@ -36227,10 +36227,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="D130" s="3">
         <v>1.6000000000000001E-3</v>
@@ -36243,10 +36243,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="D131" s="3">
         <v>1.6000000000000001E-3</v>
@@ -36259,10 +36259,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="D132" s="3">
         <v>1.5E-3</v>
@@ -36275,10 +36275,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="D133" s="3">
         <v>1.5E-3</v>
@@ -36291,10 +36291,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="D134" s="3">
         <v>1.5E-3</v>
@@ -36307,10 +36307,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="D135" s="3">
         <v>1.5E-3</v>
@@ -36323,10 +36323,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="D136" s="3">
         <v>1.5E-3</v>
@@ -36339,10 +36339,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="D137" s="3">
         <v>1.4E-3</v>
@@ -36355,10 +36355,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C138" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="D138" s="3">
         <v>1.4E-3</v>
@@ -36371,10 +36371,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="D139" s="3">
         <v>1.4E-3</v>
@@ -36387,10 +36387,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="D140" s="3">
         <v>1.4E-3</v>
@@ -36403,10 +36403,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="D141" s="3">
         <v>1.4E-3</v>
@@ -36419,10 +36419,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="D142" s="3">
         <v>1.4E-3</v>
@@ -36435,10 +36435,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="D143" s="3">
         <v>1.4E-3</v>
@@ -36451,10 +36451,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C144" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="D144" s="3">
         <v>1.4E-3</v>
@@ -36467,10 +36467,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="D145" s="3">
         <v>1.4E-3</v>
@@ -36483,10 +36483,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="D146" s="3">
         <v>1.4E-3</v>
@@ -36499,10 +36499,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="D147" s="3">
         <v>1.4E-3</v>
@@ -36515,10 +36515,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="D148" s="3">
         <v>1.4E-3</v>
@@ -36531,10 +36531,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="D149" s="3">
         <v>1.2999999999999999E-3</v>
@@ -36547,10 +36547,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="D150" s="3">
         <v>1.2999999999999999E-3</v>
@@ -36563,10 +36563,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="D151" s="3">
         <v>1.2999999999999999E-3</v>
@@ -36579,10 +36579,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="D152" s="3">
         <v>1.2999999999999999E-3</v>
@@ -36595,10 +36595,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="D153" s="3">
         <v>1.2999999999999999E-3</v>
@@ -36611,10 +36611,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="D154" s="3">
         <v>1.2999999999999999E-3</v>
@@ -36627,10 +36627,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="D155" s="3">
         <v>1.2999999999999999E-3</v>
@@ -36643,10 +36643,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="D156" s="3">
         <v>1.2999999999999999E-3</v>
@@ -36659,10 +36659,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="D157" s="3">
         <v>1.2999999999999999E-3</v>
@@ -36675,10 +36675,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="D158" s="3">
         <v>1.2999999999999999E-3</v>
@@ -36691,10 +36691,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="D159" s="3">
         <v>1.2999999999999999E-3</v>
@@ -36707,10 +36707,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="D160" s="3">
         <v>1.1999999999999999E-3</v>
@@ -36723,10 +36723,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="D161" s="3">
         <v>1.1999999999999999E-3</v>
@@ -36739,10 +36739,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="D162" s="3">
         <v>1.1999999999999999E-3</v>
@@ -36755,10 +36755,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C163" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="D163" s="3">
         <v>1.1999999999999999E-3</v>
@@ -36771,10 +36771,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C164" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="D164" s="3">
         <v>1.1999999999999999E-3</v>
@@ -36787,10 +36787,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C165" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="D165" s="3">
         <v>1.1999999999999999E-3</v>
@@ -36803,10 +36803,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="D166" s="3">
         <v>1.1999999999999999E-3</v>
@@ -36819,10 +36819,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C167" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="D167" s="3">
         <v>1.1999999999999999E-3</v>
@@ -36835,10 +36835,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C168" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="D168" s="3">
         <v>1.1999999999999999E-3</v>
@@ -36851,10 +36851,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C169" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="D169" s="3">
         <v>1.1999999999999999E-3</v>
@@ -36867,10 +36867,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C170" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>340</v>
       </c>
       <c r="D170" s="3">
         <v>1.1999999999999999E-3</v>
@@ -36883,10 +36883,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C171" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="D171" s="3">
         <v>1.1999999999999999E-3</v>
@@ -36899,10 +36899,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="D172" s="3">
         <v>1.1999999999999999E-3</v>
@@ -36915,10 +36915,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="D173" s="3">
         <v>1.1000000000000001E-3</v>
@@ -36931,10 +36931,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="D174" s="3">
         <v>1.1000000000000001E-3</v>
@@ -36947,10 +36947,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C175" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="D175" s="3">
         <v>1.1000000000000001E-3</v>
@@ -36963,10 +36963,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="D176" s="3">
         <v>1.1000000000000001E-3</v>
@@ -36979,10 +36979,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="D177" s="3">
         <v>1.1000000000000001E-3</v>
@@ -36995,10 +36995,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="D178" s="3">
         <v>1.1000000000000001E-3</v>
@@ -37011,10 +37011,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="D179" s="3">
         <v>1.1000000000000001E-3</v>
@@ -37027,10 +37027,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="D180" s="3">
         <v>1.1000000000000001E-3</v>
@@ -37043,10 +37043,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="D181" s="3">
         <v>1.1000000000000001E-3</v>
@@ -37059,10 +37059,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="D182" s="3">
         <v>1.1000000000000001E-3</v>
@@ -37075,10 +37075,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="D183" s="3">
         <v>1.1000000000000001E-3</v>
@@ -37091,10 +37091,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="D184" s="3">
         <v>1.1000000000000001E-3</v>
@@ -37107,10 +37107,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>370</v>
       </c>
       <c r="D185" s="3">
         <v>1.1000000000000001E-3</v>
@@ -37123,10 +37123,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="D186" s="3">
         <v>1.1000000000000001E-3</v>
@@ -37139,10 +37139,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="D187" s="3">
         <v>1.1000000000000001E-3</v>
@@ -37155,10 +37155,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="D188" s="3">
         <v>1.1000000000000001E-3</v>
@@ -37171,10 +37171,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="D189" s="3">
         <v>1.1000000000000001E-3</v>
@@ -37187,10 +37187,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="D190" s="3">
         <v>1E-3</v>
@@ -37203,10 +37203,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="D191" s="3">
         <v>1E-3</v>
@@ -37219,10 +37219,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>384</v>
       </c>
       <c r="D192" s="3">
         <v>1E-3</v>
@@ -37235,10 +37235,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="D193" s="3">
         <v>1E-3</v>
@@ -37251,10 +37251,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="D194" s="3">
         <v>1E-3</v>
@@ -37267,10 +37267,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>390</v>
       </c>
       <c r="D195" s="3">
         <v>1E-3</v>
@@ -37283,10 +37283,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C196" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="D196" s="3">
         <v>1E-3</v>
@@ -37299,10 +37299,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="D197" s="3">
         <v>1E-3</v>
@@ -37315,10 +37315,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>396</v>
       </c>
       <c r="D198" s="3">
         <v>1E-3</v>
@@ -37331,10 +37331,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C199" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="D199" s="3">
         <v>1E-3</v>
@@ -37347,10 +37347,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="D200" s="3">
         <v>1E-3</v>
@@ -37363,10 +37363,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C201" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="D201" s="3">
         <v>1E-3</v>
@@ -37379,10 +37379,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="D202" s="3">
         <v>1E-3</v>
@@ -37395,10 +37395,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="D203" s="3">
         <v>1E-3</v>
@@ -37411,10 +37411,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C204" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="D204" s="3">
         <v>1E-3</v>
@@ -37427,10 +37427,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C205" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="D205" s="3">
         <v>1E-3</v>
@@ -37443,10 +37443,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="D206" s="3">
         <v>1E-3</v>
@@ -37459,10 +37459,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C207" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="D207" s="3">
         <v>1E-3</v>
@@ -37475,10 +37475,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="D208" s="3">
         <v>1E-3</v>
@@ -37491,10 +37491,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="D209" s="3">
         <v>1E-3</v>
@@ -37507,10 +37507,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="D210" s="3">
         <v>1E-3</v>
@@ -37523,10 +37523,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="D211" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37539,10 +37539,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="D212" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37555,10 +37555,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="D213" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37571,10 +37571,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="D214" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37587,10 +37587,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="D215" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37603,10 +37603,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C216" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="D216" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37619,10 +37619,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="D217" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37635,10 +37635,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="D218" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37651,10 +37651,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C219" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>438</v>
       </c>
       <c r="D219" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37667,10 +37667,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C220" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="D220" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37683,10 +37683,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="D221" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37699,10 +37699,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C222" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="D222" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37715,10 +37715,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C223" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="D223" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37731,10 +37731,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="D224" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37747,10 +37747,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="D225" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37763,10 +37763,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C226" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>452</v>
       </c>
       <c r="D226" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37779,10 +37779,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C227" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="D227" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37795,10 +37795,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C228" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>456</v>
       </c>
       <c r="D228" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37811,10 +37811,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C229" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="D229" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37827,10 +37827,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C230" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="D230" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37843,10 +37843,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C231" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>462</v>
       </c>
       <c r="D231" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37859,10 +37859,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C232" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>464</v>
       </c>
       <c r="D232" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37875,10 +37875,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C233" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="D233" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37891,10 +37891,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C234" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>468</v>
       </c>
       <c r="D234" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37907,10 +37907,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C235" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>470</v>
       </c>
       <c r="D235" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37923,10 +37923,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C236" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="D236" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37939,10 +37939,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>474</v>
       </c>
       <c r="D237" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37955,10 +37955,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C238" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>476</v>
       </c>
       <c r="D238" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37971,10 +37971,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C239" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="D239" s="3">
         <v>8.9999999999999998E-4</v>
@@ -37987,10 +37987,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C240" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>480</v>
       </c>
       <c r="D240" s="3">
         <v>8.0000000000000004E-4</v>
@@ -38003,10 +38003,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C241" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>482</v>
       </c>
       <c r="D241" s="3">
         <v>8.0000000000000004E-4</v>
@@ -38019,10 +38019,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C242" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="D242" s="3">
         <v>8.0000000000000004E-4</v>
@@ -38035,10 +38035,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>486</v>
       </c>
       <c r="D243" s="3">
         <v>8.0000000000000004E-4</v>
@@ -38051,10 +38051,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C244" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>488</v>
       </c>
       <c r="D244" s="3">
         <v>8.0000000000000004E-4</v>
@@ -38067,10 +38067,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C245" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>490</v>
       </c>
       <c r="D245" s="3">
         <v>8.0000000000000004E-4</v>
@@ -38083,10 +38083,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C246" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>492</v>
       </c>
       <c r="D246" s="3">
         <v>8.0000000000000004E-4</v>
@@ -38099,10 +38099,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>494</v>
       </c>
       <c r="D247" s="3">
         <v>8.0000000000000004E-4</v>
@@ -38115,10 +38115,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C248" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>496</v>
       </c>
       <c r="D248" s="3">
         <v>8.0000000000000004E-4</v>
@@ -38131,10 +38131,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>498</v>
       </c>
       <c r="D249" s="3">
         <v>8.0000000000000004E-4</v>
@@ -38147,10 +38147,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>500</v>
       </c>
       <c r="D250" s="3">
         <v>8.0000000000000004E-4</v>
@@ -38163,10 +38163,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>502</v>
       </c>
       <c r="D251" s="3">
         <v>8.0000000000000004E-4</v>
@@ -38179,10 +38179,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C252" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="D252" s="3">
         <v>8.0000000000000004E-4</v>
@@ -38195,10 +38195,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>506</v>
       </c>
       <c r="D253" s="3">
         <v>8.0000000000000004E-4</v>
@@ -38211,10 +38211,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C254" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="D254" s="3">
         <v>8.0000000000000004E-4</v>
@@ -38227,10 +38227,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C255" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="D255" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38243,10 +38243,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C256" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>512</v>
       </c>
       <c r="D256" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38259,10 +38259,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C257" s="2" t="s">
         <v>513</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>514</v>
       </c>
       <c r="D257" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38275,10 +38275,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C258" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>516</v>
       </c>
       <c r="D258" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38291,10 +38291,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C259" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>518</v>
       </c>
       <c r="D259" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38307,10 +38307,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C260" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>520</v>
       </c>
       <c r="D260" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38323,10 +38323,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C261" s="2" t="s">
         <v>521</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>522</v>
       </c>
       <c r="D261" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38339,10 +38339,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C262" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>524</v>
       </c>
       <c r="D262" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38355,10 +38355,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C263" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="D263" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38371,10 +38371,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C264" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>528</v>
       </c>
       <c r="D264" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38387,10 +38387,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C265" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>530</v>
       </c>
       <c r="D265" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38403,10 +38403,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C266" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>532</v>
       </c>
       <c r="D266" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38419,10 +38419,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C267" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>534</v>
       </c>
       <c r="D267" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38435,10 +38435,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C268" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>536</v>
       </c>
       <c r="D268" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38451,10 +38451,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C269" s="2" t="s">
         <v>537</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>538</v>
       </c>
       <c r="D269" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38467,10 +38467,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C270" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>540</v>
       </c>
       <c r="D270" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38483,10 +38483,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C271" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>542</v>
       </c>
       <c r="D271" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38499,10 +38499,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C272" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>544</v>
       </c>
       <c r="D272" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38515,10 +38515,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C273" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>546</v>
       </c>
       <c r="D273" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38531,10 +38531,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C274" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="D274" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38547,10 +38547,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C275" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="D275" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38563,10 +38563,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C276" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>552</v>
       </c>
       <c r="D276" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38579,10 +38579,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C277" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>554</v>
       </c>
       <c r="D277" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38595,10 +38595,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C278" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>556</v>
       </c>
       <c r="D278" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38611,10 +38611,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C279" s="2" t="s">
         <v>557</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>558</v>
       </c>
       <c r="D279" s="3">
         <v>6.9999999999999999E-4</v>
@@ -38627,10 +38627,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C280" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>560</v>
       </c>
       <c r="D280" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38643,10 +38643,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C281" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>562</v>
       </c>
       <c r="D281" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38659,10 +38659,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C282" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>564</v>
       </c>
       <c r="D282" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38675,10 +38675,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C283" s="2" t="s">
         <v>565</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>566</v>
       </c>
       <c r="D283" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38691,10 +38691,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C284" s="2" t="s">
         <v>567</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>568</v>
       </c>
       <c r="D284" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38707,10 +38707,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C285" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>570</v>
       </c>
       <c r="D285" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38723,10 +38723,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C286" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="D286" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38739,10 +38739,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C287" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>574</v>
       </c>
       <c r="D287" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38755,10 +38755,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C288" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>576</v>
       </c>
       <c r="D288" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38771,10 +38771,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C289" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>578</v>
       </c>
       <c r="D289" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38787,10 +38787,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C290" s="2" t="s">
         <v>579</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>580</v>
       </c>
       <c r="D290" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38803,10 +38803,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C291" s="2" t="s">
         <v>581</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>582</v>
       </c>
       <c r="D291" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38819,10 +38819,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C292" s="2" t="s">
         <v>583</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>584</v>
       </c>
       <c r="D292" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38835,10 +38835,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C293" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>586</v>
       </c>
       <c r="D293" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38851,10 +38851,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C294" s="2" t="s">
         <v>587</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>588</v>
       </c>
       <c r="D294" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38867,10 +38867,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C295" s="2" t="s">
         <v>589</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>590</v>
       </c>
       <c r="D295" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38883,10 +38883,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C296" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>592</v>
       </c>
       <c r="D296" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38899,10 +38899,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C297" s="2" t="s">
         <v>593</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>594</v>
       </c>
       <c r="D297" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38915,10 +38915,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C298" s="2" t="s">
         <v>595</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>596</v>
       </c>
       <c r="D298" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38931,10 +38931,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C299" s="2" t="s">
         <v>597</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>598</v>
       </c>
       <c r="D299" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38947,10 +38947,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C300" s="2" t="s">
         <v>599</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>600</v>
       </c>
       <c r="D300" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38963,10 +38963,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C301" s="2" t="s">
         <v>601</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>602</v>
       </c>
       <c r="D301" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38979,10 +38979,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C302" s="2" t="s">
         <v>603</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>604</v>
       </c>
       <c r="D302" s="3">
         <v>5.9999999999999995E-4</v>
@@ -38995,10 +38995,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C303" s="2" t="s">
         <v>605</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>606</v>
       </c>
       <c r="D303" s="3">
         <v>5.9999999999999995E-4</v>
@@ -39011,10 +39011,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C304" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>608</v>
       </c>
       <c r="D304" s="3">
         <v>5.9999999999999995E-4</v>
@@ -39027,10 +39027,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C305" s="2" t="s">
         <v>609</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>610</v>
       </c>
       <c r="D305" s="3">
         <v>5.9999999999999995E-4</v>
@@ -39043,10 +39043,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C306" s="2" t="s">
         <v>611</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>612</v>
       </c>
       <c r="D306" s="3">
         <v>5.9999999999999995E-4</v>
@@ -39059,10 +39059,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C307" s="2" t="s">
         <v>613</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>614</v>
       </c>
       <c r="D307" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39075,10 +39075,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C308" s="2" t="s">
         <v>615</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>616</v>
       </c>
       <c r="D308" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39091,10 +39091,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C309" s="2" t="s">
         <v>617</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>618</v>
       </c>
       <c r="D309" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39107,10 +39107,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C310" s="2" t="s">
         <v>619</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>620</v>
       </c>
       <c r="D310" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39123,10 +39123,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C311" s="2" t="s">
         <v>621</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>622</v>
       </c>
       <c r="D311" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39139,10 +39139,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C312" s="2" t="s">
         <v>623</v>
-      </c>
-      <c r="C312" s="2" t="s">
-        <v>624</v>
       </c>
       <c r="D312" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39155,10 +39155,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C313" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>626</v>
       </c>
       <c r="D313" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39171,10 +39171,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C314" s="2" t="s">
         <v>627</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>628</v>
       </c>
       <c r="D314" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39187,10 +39187,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C315" s="2" t="s">
         <v>629</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>630</v>
       </c>
       <c r="D315" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39203,10 +39203,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C316" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>632</v>
       </c>
       <c r="D316" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39219,10 +39219,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C317" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>634</v>
       </c>
       <c r="D317" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39235,10 +39235,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C318" s="2" t="s">
         <v>635</v>
-      </c>
-      <c r="C318" s="2" t="s">
-        <v>636</v>
       </c>
       <c r="D318" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39251,10 +39251,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C319" s="2" t="s">
         <v>637</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>638</v>
       </c>
       <c r="D319" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39267,10 +39267,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C320" s="2" t="s">
         <v>639</v>
-      </c>
-      <c r="C320" s="2" t="s">
-        <v>640</v>
       </c>
       <c r="D320" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39283,10 +39283,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C321" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="C321" s="2" t="s">
-        <v>642</v>
       </c>
       <c r="D321" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39299,10 +39299,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C322" s="2" t="s">
         <v>643</v>
-      </c>
-      <c r="C322" s="2" t="s">
-        <v>644</v>
       </c>
       <c r="D322" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39315,10 +39315,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C323" s="2" t="s">
         <v>645</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>646</v>
       </c>
       <c r="D323" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39331,10 +39331,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C324" s="2" t="s">
         <v>647</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>648</v>
       </c>
       <c r="D324" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39347,10 +39347,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C325" s="2" t="s">
         <v>649</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>650</v>
       </c>
       <c r="D325" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39363,10 +39363,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C326" s="2" t="s">
         <v>651</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>652</v>
       </c>
       <c r="D326" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39379,10 +39379,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C327" s="2" t="s">
         <v>653</v>
-      </c>
-      <c r="C327" s="2" t="s">
-        <v>654</v>
       </c>
       <c r="D327" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39395,10 +39395,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C328" s="2" t="s">
         <v>655</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>656</v>
       </c>
       <c r="D328" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39411,10 +39411,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C329" s="2" t="s">
         <v>657</v>
-      </c>
-      <c r="C329" s="2" t="s">
-        <v>658</v>
       </c>
       <c r="D329" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39427,10 +39427,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C330" s="2" t="s">
         <v>659</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>660</v>
       </c>
       <c r="D330" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39443,10 +39443,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C331" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="C331" s="2" t="s">
-        <v>662</v>
       </c>
       <c r="D331" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39459,10 +39459,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C332" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>664</v>
       </c>
       <c r="D332" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39475,10 +39475,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C333" s="2" t="s">
         <v>665</v>
-      </c>
-      <c r="C333" s="2" t="s">
-        <v>666</v>
       </c>
       <c r="D333" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39491,10 +39491,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C334" s="2" t="s">
         <v>667</v>
-      </c>
-      <c r="C334" s="2" t="s">
-        <v>668</v>
       </c>
       <c r="D334" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39507,10 +39507,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C335" s="2" t="s">
         <v>669</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>670</v>
       </c>
       <c r="D335" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39523,10 +39523,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C336" s="2" t="s">
         <v>671</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>672</v>
       </c>
       <c r="D336" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39539,10 +39539,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C337" s="2" t="s">
         <v>673</v>
-      </c>
-      <c r="C337" s="2" t="s">
-        <v>674</v>
       </c>
       <c r="D337" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39555,10 +39555,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C338" s="2" t="s">
         <v>675</v>
-      </c>
-      <c r="C338" s="2" t="s">
-        <v>676</v>
       </c>
       <c r="D338" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39571,10 +39571,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C339" s="2" t="s">
         <v>677</v>
-      </c>
-      <c r="C339" s="2" t="s">
-        <v>678</v>
       </c>
       <c r="D339" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39587,10 +39587,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C340" s="2" t="s">
         <v>679</v>
-      </c>
-      <c r="C340" s="2" t="s">
-        <v>680</v>
       </c>
       <c r="D340" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39603,10 +39603,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C341" s="2" t="s">
         <v>681</v>
-      </c>
-      <c r="C341" s="2" t="s">
-        <v>682</v>
       </c>
       <c r="D341" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39619,10 +39619,10 @@
         <v>341</v>
       </c>
       <c r="B342" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C342" s="2" t="s">
         <v>683</v>
-      </c>
-      <c r="C342" s="2" t="s">
-        <v>684</v>
       </c>
       <c r="D342" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39635,10 +39635,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C343" s="2" t="s">
         <v>685</v>
-      </c>
-      <c r="C343" s="2" t="s">
-        <v>686</v>
       </c>
       <c r="D343" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39651,10 +39651,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C344" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="C344" s="2" t="s">
-        <v>688</v>
       </c>
       <c r="D344" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39667,10 +39667,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C345" s="2" t="s">
         <v>689</v>
-      </c>
-      <c r="C345" s="2" t="s">
-        <v>690</v>
       </c>
       <c r="D345" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39683,10 +39683,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C346" s="2" t="s">
         <v>691</v>
-      </c>
-      <c r="C346" s="2" t="s">
-        <v>692</v>
       </c>
       <c r="D346" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39699,10 +39699,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="C347" s="2" t="s">
         <v>693</v>
-      </c>
-      <c r="C347" s="2" t="s">
-        <v>694</v>
       </c>
       <c r="D347" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39715,10 +39715,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="C348" s="2" t="s">
         <v>695</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>696</v>
       </c>
       <c r="D348" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39731,10 +39731,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C349" s="2" t="s">
         <v>697</v>
-      </c>
-      <c r="C349" s="2" t="s">
-        <v>698</v>
       </c>
       <c r="D349" s="3">
         <v>5.0000000000000001E-4</v>
@@ -39747,10 +39747,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C350" s="2" t="s">
         <v>699</v>
-      </c>
-      <c r="C350" s="2" t="s">
-        <v>700</v>
       </c>
       <c r="D350" s="3">
         <v>4.0000000000000002E-4</v>
@@ -39763,10 +39763,10 @@
         <v>350</v>
       </c>
       <c r="B351" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C351" s="2" t="s">
         <v>701</v>
-      </c>
-      <c r="C351" s="2" t="s">
-        <v>702</v>
       </c>
       <c r="D351" s="3">
         <v>4.0000000000000002E-4</v>
@@ -39779,10 +39779,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C352" s="2" t="s">
         <v>703</v>
-      </c>
-      <c r="C352" s="2" t="s">
-        <v>704</v>
       </c>
       <c r="D352" s="3">
         <v>4.0000000000000002E-4</v>
@@ -39795,10 +39795,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C353" s="2" t="s">
         <v>705</v>
-      </c>
-      <c r="C353" s="2" t="s">
-        <v>706</v>
       </c>
       <c r="D353" s="3">
         <v>4.0000000000000002E-4</v>
@@ -39811,10 +39811,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C354" s="2" t="s">
         <v>707</v>
-      </c>
-      <c r="C354" s="2" t="s">
-        <v>708</v>
       </c>
       <c r="D354" s="3">
         <v>4.0000000000000002E-4</v>
@@ -39827,10 +39827,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C355" s="2" t="s">
         <v>709</v>
-      </c>
-      <c r="C355" s="2" t="s">
-        <v>710</v>
       </c>
       <c r="D355" s="3">
         <v>4.0000000000000002E-4</v>
@@ -39843,10 +39843,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C356" s="2" t="s">
         <v>711</v>
-      </c>
-      <c r="C356" s="2" t="s">
-        <v>712</v>
       </c>
       <c r="D356" s="3">
         <v>4.0000000000000002E-4</v>
@@ -39859,10 +39859,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C357" s="2" t="s">
         <v>713</v>
-      </c>
-      <c r="C357" s="2" t="s">
-        <v>714</v>
       </c>
       <c r="D357" s="3">
         <v>4.0000000000000002E-4</v>
@@ -39875,10 +39875,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C358" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="C358" s="2" t="s">
-        <v>716</v>
       </c>
       <c r="D358" s="3">
         <v>4.0000000000000002E-4</v>
@@ -39891,10 +39891,10 @@
         <v>358</v>
       </c>
       <c r="B359" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C359" s="2" t="s">
         <v>717</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>718</v>
       </c>
       <c r="D359" s="3">
         <v>4.0000000000000002E-4</v>
@@ -39907,10 +39907,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C360" s="2" t="s">
         <v>719</v>
-      </c>
-      <c r="C360" s="2" t="s">
-        <v>720</v>
       </c>
       <c r="D360" s="3">
         <v>4.0000000000000002E-4</v>
@@ -39923,10 +39923,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C361" s="2" t="s">
         <v>721</v>
-      </c>
-      <c r="C361" s="2" t="s">
-        <v>722</v>
       </c>
       <c r="D361" s="3">
         <v>4.0000000000000002E-4</v>
@@ -39939,10 +39939,10 @@
         <v>361</v>
       </c>
       <c r="B362" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C362" s="2" t="s">
         <v>723</v>
-      </c>
-      <c r="C362" s="2" t="s">
-        <v>724</v>
       </c>
       <c r="D362" s="3">
         <v>4.0000000000000002E-4</v>
@@ -39955,10 +39955,10 @@
         <v>362</v>
       </c>
       <c r="B363" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C363" s="2" t="s">
         <v>725</v>
-      </c>
-      <c r="C363" s="2" t="s">
-        <v>726</v>
       </c>
       <c r="D363" s="3">
         <v>4.0000000000000002E-4</v>
@@ -39971,10 +39971,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C364" s="2" t="s">
         <v>727</v>
-      </c>
-      <c r="C364" s="2" t="s">
-        <v>728</v>
       </c>
       <c r="D364" s="3">
         <v>4.0000000000000002E-4</v>
@@ -39987,10 +39987,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C365" s="2" t="s">
         <v>729</v>
-      </c>
-      <c r="C365" s="2" t="s">
-        <v>730</v>
       </c>
       <c r="D365" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40003,10 +40003,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C366" s="2" t="s">
         <v>731</v>
-      </c>
-      <c r="C366" s="2" t="s">
-        <v>732</v>
       </c>
       <c r="D366" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40019,10 +40019,10 @@
         <v>366</v>
       </c>
       <c r="B367" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C367" s="2" t="s">
         <v>733</v>
-      </c>
-      <c r="C367" s="2" t="s">
-        <v>734</v>
       </c>
       <c r="D367" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40035,10 +40035,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C368" s="2" t="s">
         <v>735</v>
-      </c>
-      <c r="C368" s="2" t="s">
-        <v>736</v>
       </c>
       <c r="D368" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40051,10 +40051,10 @@
         <v>368</v>
       </c>
       <c r="B369" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C369" s="2" t="s">
         <v>737</v>
-      </c>
-      <c r="C369" s="2" t="s">
-        <v>738</v>
       </c>
       <c r="D369" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40067,10 +40067,10 @@
         <v>369</v>
       </c>
       <c r="B370" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C370" s="2" t="s">
         <v>739</v>
-      </c>
-      <c r="C370" s="2" t="s">
-        <v>740</v>
       </c>
       <c r="D370" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40083,10 +40083,10 @@
         <v>370</v>
       </c>
       <c r="B371" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C371" s="2" t="s">
         <v>741</v>
-      </c>
-      <c r="C371" s="2" t="s">
-        <v>742</v>
       </c>
       <c r="D371" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40099,10 +40099,10 @@
         <v>371</v>
       </c>
       <c r="B372" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C372" s="2" t="s">
         <v>743</v>
-      </c>
-      <c r="C372" s="2" t="s">
-        <v>744</v>
       </c>
       <c r="D372" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40115,10 +40115,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C373" s="2" t="s">
         <v>745</v>
-      </c>
-      <c r="C373" s="2" t="s">
-        <v>746</v>
       </c>
       <c r="D373" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40131,10 +40131,10 @@
         <v>373</v>
       </c>
       <c r="B374" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C374" s="2" t="s">
         <v>747</v>
-      </c>
-      <c r="C374" s="2" t="s">
-        <v>748</v>
       </c>
       <c r="D374" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40147,10 +40147,10 @@
         <v>374</v>
       </c>
       <c r="B375" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C375" s="2" t="s">
         <v>749</v>
-      </c>
-      <c r="C375" s="2" t="s">
-        <v>750</v>
       </c>
       <c r="D375" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40163,10 +40163,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C376" s="2" t="s">
         <v>751</v>
-      </c>
-      <c r="C376" s="2" t="s">
-        <v>752</v>
       </c>
       <c r="D376" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40179,10 +40179,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C377" s="2" t="s">
         <v>753</v>
-      </c>
-      <c r="C377" s="2" t="s">
-        <v>754</v>
       </c>
       <c r="D377" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40195,10 +40195,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="C378" s="2" t="s">
         <v>755</v>
-      </c>
-      <c r="C378" s="2" t="s">
-        <v>756</v>
       </c>
       <c r="D378" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40211,10 +40211,10 @@
         <v>378</v>
       </c>
       <c r="B379" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="C379" s="2" t="s">
         <v>757</v>
-      </c>
-      <c r="C379" s="2" t="s">
-        <v>758</v>
       </c>
       <c r="D379" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40227,10 +40227,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="C380" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="C380" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="D380" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40243,10 +40243,10 @@
         <v>380</v>
       </c>
       <c r="B381" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="C381" s="2" t="s">
         <v>761</v>
-      </c>
-      <c r="C381" s="2" t="s">
-        <v>762</v>
       </c>
       <c r="D381" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40259,10 +40259,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="C382" s="2" t="s">
         <v>763</v>
-      </c>
-      <c r="C382" s="2" t="s">
-        <v>764</v>
       </c>
       <c r="D382" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40275,10 +40275,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="C383" s="2" t="s">
         <v>765</v>
-      </c>
-      <c r="C383" s="2" t="s">
-        <v>766</v>
       </c>
       <c r="D383" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40291,10 +40291,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="C384" s="2" t="s">
         <v>767</v>
-      </c>
-      <c r="C384" s="2" t="s">
-        <v>768</v>
       </c>
       <c r="D384" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40307,10 +40307,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="C385" s="2" t="s">
         <v>769</v>
-      </c>
-      <c r="C385" s="2" t="s">
-        <v>770</v>
       </c>
       <c r="D385" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40323,10 +40323,10 @@
         <v>385</v>
       </c>
       <c r="B386" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C386" s="2" t="s">
         <v>771</v>
-      </c>
-      <c r="C386" s="2" t="s">
-        <v>772</v>
       </c>
       <c r="D386" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40339,10 +40339,10 @@
         <v>386</v>
       </c>
       <c r="B387" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C387" s="2" t="s">
         <v>773</v>
-      </c>
-      <c r="C387" s="2" t="s">
-        <v>774</v>
       </c>
       <c r="D387" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40355,10 +40355,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C388" s="2" t="s">
         <v>775</v>
-      </c>
-      <c r="C388" s="2" t="s">
-        <v>776</v>
       </c>
       <c r="D388" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40371,10 +40371,10 @@
         <v>388</v>
       </c>
       <c r="B389" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="C389" s="2" t="s">
         <v>777</v>
-      </c>
-      <c r="C389" s="2" t="s">
-        <v>778</v>
       </c>
       <c r="D389" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40387,10 +40387,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="C390" s="2" t="s">
         <v>779</v>
-      </c>
-      <c r="C390" s="2" t="s">
-        <v>780</v>
       </c>
       <c r="D390" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40403,10 +40403,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="C391" s="2" t="s">
         <v>781</v>
-      </c>
-      <c r="C391" s="2" t="s">
-        <v>782</v>
       </c>
       <c r="D391" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40419,10 +40419,10 @@
         <v>391</v>
       </c>
       <c r="B392" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C392" s="2" t="s">
         <v>783</v>
-      </c>
-      <c r="C392" s="2" t="s">
-        <v>784</v>
       </c>
       <c r="D392" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40435,10 +40435,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C393" s="2" t="s">
         <v>785</v>
-      </c>
-      <c r="C393" s="2" t="s">
-        <v>786</v>
       </c>
       <c r="D393" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40451,10 +40451,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="C394" s="2" t="s">
         <v>787</v>
-      </c>
-      <c r="C394" s="2" t="s">
-        <v>788</v>
       </c>
       <c r="D394" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40467,10 +40467,10 @@
         <v>394</v>
       </c>
       <c r="B395" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C395" s="2" t="s">
         <v>789</v>
-      </c>
-      <c r="C395" s="2" t="s">
-        <v>790</v>
       </c>
       <c r="D395" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40483,10 +40483,10 @@
         <v>395</v>
       </c>
       <c r="B396" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C396" s="2" t="s">
         <v>791</v>
-      </c>
-      <c r="C396" s="2" t="s">
-        <v>792</v>
       </c>
       <c r="D396" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40499,10 +40499,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C397" s="2" t="s">
         <v>793</v>
-      </c>
-      <c r="C397" s="2" t="s">
-        <v>794</v>
       </c>
       <c r="D397" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40515,10 +40515,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="C398" s="2" t="s">
         <v>795</v>
-      </c>
-      <c r="C398" s="2" t="s">
-        <v>796</v>
       </c>
       <c r="D398" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40531,10 +40531,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C399" s="2" t="s">
         <v>797</v>
-      </c>
-      <c r="C399" s="2" t="s">
-        <v>798</v>
       </c>
       <c r="D399" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40547,10 +40547,10 @@
         <v>399</v>
       </c>
       <c r="B400" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="C400" s="2" t="s">
         <v>799</v>
-      </c>
-      <c r="C400" s="2" t="s">
-        <v>800</v>
       </c>
       <c r="D400" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40563,10 +40563,10 @@
         <v>400</v>
       </c>
       <c r="B401" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="C401" s="2" t="s">
         <v>801</v>
-      </c>
-      <c r="C401" s="2" t="s">
-        <v>802</v>
       </c>
       <c r="D401" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40579,10 +40579,10 @@
         <v>401</v>
       </c>
       <c r="B402" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="C402" s="2" t="s">
         <v>803</v>
-      </c>
-      <c r="C402" s="2" t="s">
-        <v>804</v>
       </c>
       <c r="D402" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40595,10 +40595,10 @@
         <v>402</v>
       </c>
       <c r="B403" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="C403" s="2" t="s">
         <v>805</v>
-      </c>
-      <c r="C403" s="2" t="s">
-        <v>806</v>
       </c>
       <c r="D403" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40611,10 +40611,10 @@
         <v>403</v>
       </c>
       <c r="B404" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="C404" s="2" t="s">
         <v>807</v>
-      </c>
-      <c r="C404" s="2" t="s">
-        <v>808</v>
       </c>
       <c r="D404" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40627,10 +40627,10 @@
         <v>404</v>
       </c>
       <c r="B405" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C405" s="2" t="s">
         <v>809</v>
-      </c>
-      <c r="C405" s="2" t="s">
-        <v>810</v>
       </c>
       <c r="D405" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40643,10 +40643,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="C406" s="2" t="s">
         <v>811</v>
-      </c>
-      <c r="C406" s="2" t="s">
-        <v>812</v>
       </c>
       <c r="D406" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40659,10 +40659,10 @@
         <v>406</v>
       </c>
       <c r="B407" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="C407" s="2" t="s">
         <v>813</v>
-      </c>
-      <c r="C407" s="2" t="s">
-        <v>814</v>
       </c>
       <c r="D407" s="3">
         <v>4.0000000000000002E-4</v>
@@ -40675,10 +40675,10 @@
         <v>407</v>
       </c>
       <c r="B408" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="C408" s="2" t="s">
         <v>815</v>
-      </c>
-      <c r="C408" s="2" t="s">
-        <v>816</v>
       </c>
       <c r="D408" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40691,10 +40691,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="C409" s="2" t="s">
         <v>817</v>
-      </c>
-      <c r="C409" s="2" t="s">
-        <v>818</v>
       </c>
       <c r="D409" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40707,10 +40707,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="C410" s="2" t="s">
         <v>819</v>
-      </c>
-      <c r="C410" s="2" t="s">
-        <v>820</v>
       </c>
       <c r="D410" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40723,10 +40723,10 @@
         <v>410</v>
       </c>
       <c r="B411" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C411" s="2" t="s">
         <v>821</v>
-      </c>
-      <c r="C411" s="2" t="s">
-        <v>822</v>
       </c>
       <c r="D411" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40739,10 +40739,10 @@
         <v>411</v>
       </c>
       <c r="B412" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="C412" s="2" t="s">
         <v>823</v>
-      </c>
-      <c r="C412" s="2" t="s">
-        <v>824</v>
       </c>
       <c r="D412" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40755,10 +40755,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="C413" s="2" t="s">
         <v>825</v>
-      </c>
-      <c r="C413" s="2" t="s">
-        <v>826</v>
       </c>
       <c r="D413" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40771,10 +40771,10 @@
         <v>413</v>
       </c>
       <c r="B414" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="C414" s="2" t="s">
         <v>827</v>
-      </c>
-      <c r="C414" s="2" t="s">
-        <v>828</v>
       </c>
       <c r="D414" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40787,10 +40787,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C415" s="2" t="s">
         <v>829</v>
-      </c>
-      <c r="C415" s="2" t="s">
-        <v>830</v>
       </c>
       <c r="D415" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40803,10 +40803,10 @@
         <v>415</v>
       </c>
       <c r="B416" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="C416" s="2" t="s">
         <v>831</v>
-      </c>
-      <c r="C416" s="2" t="s">
-        <v>832</v>
       </c>
       <c r="D416" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40819,10 +40819,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="C417" s="2" t="s">
         <v>833</v>
-      </c>
-      <c r="C417" s="2" t="s">
-        <v>834</v>
       </c>
       <c r="D417" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40835,10 +40835,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="C418" s="2" t="s">
         <v>835</v>
-      </c>
-      <c r="C418" s="2" t="s">
-        <v>836</v>
       </c>
       <c r="D418" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40851,10 +40851,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C419" s="2" t="s">
         <v>837</v>
-      </c>
-      <c r="C419" s="2" t="s">
-        <v>838</v>
       </c>
       <c r="D419" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40867,10 +40867,10 @@
         <v>419</v>
       </c>
       <c r="B420" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="C420" s="2" t="s">
         <v>839</v>
-      </c>
-      <c r="C420" s="2" t="s">
-        <v>840</v>
       </c>
       <c r="D420" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40883,10 +40883,10 @@
         <v>420</v>
       </c>
       <c r="B421" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C421" s="2" t="s">
         <v>841</v>
-      </c>
-      <c r="C421" s="2" t="s">
-        <v>842</v>
       </c>
       <c r="D421" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40899,10 +40899,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C422" s="2" t="s">
         <v>843</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>844</v>
       </c>
       <c r="D422" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40915,10 +40915,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="C423" s="2" t="s">
         <v>845</v>
-      </c>
-      <c r="C423" s="2" t="s">
-        <v>846</v>
       </c>
       <c r="D423" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40931,10 +40931,10 @@
         <v>423</v>
       </c>
       <c r="B424" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="C424" s="2" t="s">
         <v>847</v>
-      </c>
-      <c r="C424" s="2" t="s">
-        <v>848</v>
       </c>
       <c r="D424" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40947,10 +40947,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="C425" s="2" t="s">
         <v>849</v>
-      </c>
-      <c r="C425" s="2" t="s">
-        <v>850</v>
       </c>
       <c r="D425" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40963,10 +40963,10 @@
         <v>425</v>
       </c>
       <c r="B426" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="C426" s="2" t="s">
         <v>851</v>
-      </c>
-      <c r="C426" s="2" t="s">
-        <v>852</v>
       </c>
       <c r="D426" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40979,10 +40979,10 @@
         <v>426</v>
       </c>
       <c r="B427" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="C427" s="2" t="s">
         <v>853</v>
-      </c>
-      <c r="C427" s="2" t="s">
-        <v>854</v>
       </c>
       <c r="D427" s="3">
         <v>2.9999999999999997E-4</v>
@@ -40995,10 +40995,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="C428" s="2" t="s">
         <v>855</v>
-      </c>
-      <c r="C428" s="2" t="s">
-        <v>856</v>
       </c>
       <c r="D428" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41011,10 +41011,10 @@
         <v>428</v>
       </c>
       <c r="B429" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="C429" s="2" t="s">
         <v>857</v>
-      </c>
-      <c r="C429" s="2" t="s">
-        <v>858</v>
       </c>
       <c r="D429" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41027,10 +41027,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C430" s="2" t="s">
         <v>859</v>
-      </c>
-      <c r="C430" s="2" t="s">
-        <v>860</v>
       </c>
       <c r="D430" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41043,10 +41043,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C431" s="2" t="s">
         <v>861</v>
-      </c>
-      <c r="C431" s="2" t="s">
-        <v>862</v>
       </c>
       <c r="D431" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41059,10 +41059,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="C432" s="2" t="s">
         <v>863</v>
-      </c>
-      <c r="C432" s="2" t="s">
-        <v>864</v>
       </c>
       <c r="D432" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41075,10 +41075,10 @@
         <v>432</v>
       </c>
       <c r="B433" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="C433" s="2" t="s">
         <v>865</v>
-      </c>
-      <c r="C433" s="2" t="s">
-        <v>866</v>
       </c>
       <c r="D433" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41091,10 +41091,10 @@
         <v>433</v>
       </c>
       <c r="B434" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="C434" s="2" t="s">
         <v>867</v>
-      </c>
-      <c r="C434" s="2" t="s">
-        <v>868</v>
       </c>
       <c r="D434" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41107,10 +41107,10 @@
         <v>434</v>
       </c>
       <c r="B435" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="C435" s="2" t="s">
         <v>869</v>
-      </c>
-      <c r="C435" s="2" t="s">
-        <v>870</v>
       </c>
       <c r="D435" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41123,10 +41123,10 @@
         <v>435</v>
       </c>
       <c r="B436" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="C436" s="2" t="s">
         <v>871</v>
-      </c>
-      <c r="C436" s="2" t="s">
-        <v>872</v>
       </c>
       <c r="D436" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41139,10 +41139,10 @@
         <v>436</v>
       </c>
       <c r="B437" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="C437" s="2" t="s">
         <v>873</v>
-      </c>
-      <c r="C437" s="2" t="s">
-        <v>874</v>
       </c>
       <c r="D437" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41155,10 +41155,10 @@
         <v>437</v>
       </c>
       <c r="B438" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="C438" s="2" t="s">
         <v>875</v>
-      </c>
-      <c r="C438" s="2" t="s">
-        <v>876</v>
       </c>
       <c r="D438" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41171,10 +41171,10 @@
         <v>438</v>
       </c>
       <c r="B439" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="C439" s="2" t="s">
         <v>877</v>
-      </c>
-      <c r="C439" s="2" t="s">
-        <v>878</v>
       </c>
       <c r="D439" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41187,10 +41187,10 @@
         <v>439</v>
       </c>
       <c r="B440" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="C440" s="2" t="s">
         <v>879</v>
-      </c>
-      <c r="C440" s="2" t="s">
-        <v>880</v>
       </c>
       <c r="D440" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41203,10 +41203,10 @@
         <v>440</v>
       </c>
       <c r="B441" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="C441" s="2" t="s">
         <v>881</v>
-      </c>
-      <c r="C441" s="2" t="s">
-        <v>882</v>
       </c>
       <c r="D441" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41219,10 +41219,10 @@
         <v>441</v>
       </c>
       <c r="B442" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="C442" s="2" t="s">
         <v>883</v>
-      </c>
-      <c r="C442" s="2" t="s">
-        <v>884</v>
       </c>
       <c r="D442" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41235,10 +41235,10 @@
         <v>442</v>
       </c>
       <c r="B443" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="C443" s="2" t="s">
         <v>885</v>
-      </c>
-      <c r="C443" s="2" t="s">
-        <v>886</v>
       </c>
       <c r="D443" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41251,10 +41251,10 @@
         <v>443</v>
       </c>
       <c r="B444" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="C444" s="2" t="s">
         <v>887</v>
-      </c>
-      <c r="C444" s="2" t="s">
-        <v>888</v>
       </c>
       <c r="D444" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41267,10 +41267,10 @@
         <v>444</v>
       </c>
       <c r="B445" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="C445" s="2" t="s">
         <v>889</v>
-      </c>
-      <c r="C445" s="2" t="s">
-        <v>890</v>
       </c>
       <c r="D445" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41283,10 +41283,10 @@
         <v>445</v>
       </c>
       <c r="B446" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="C446" s="2" t="s">
         <v>891</v>
-      </c>
-      <c r="C446" s="2" t="s">
-        <v>892</v>
       </c>
       <c r="D446" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41299,10 +41299,10 @@
         <v>446</v>
       </c>
       <c r="B447" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="C447" s="2" t="s">
         <v>893</v>
-      </c>
-      <c r="C447" s="2" t="s">
-        <v>894</v>
       </c>
       <c r="D447" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41315,10 +41315,10 @@
         <v>447</v>
       </c>
       <c r="B448" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="C448" s="2" t="s">
         <v>895</v>
-      </c>
-      <c r="C448" s="2" t="s">
-        <v>896</v>
       </c>
       <c r="D448" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41331,10 +41331,10 @@
         <v>448</v>
       </c>
       <c r="B449" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="C449" s="2" t="s">
         <v>897</v>
-      </c>
-      <c r="C449" s="2" t="s">
-        <v>898</v>
       </c>
       <c r="D449" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41347,10 +41347,10 @@
         <v>449</v>
       </c>
       <c r="B450" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="C450" s="2" t="s">
         <v>899</v>
-      </c>
-      <c r="C450" s="2" t="s">
-        <v>900</v>
       </c>
       <c r="D450" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41363,10 +41363,10 @@
         <v>450</v>
       </c>
       <c r="B451" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="C451" s="2" t="s">
         <v>901</v>
-      </c>
-      <c r="C451" s="2" t="s">
-        <v>902</v>
       </c>
       <c r="D451" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41379,10 +41379,10 @@
         <v>451</v>
       </c>
       <c r="B452" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="C452" s="2" t="s">
         <v>903</v>
-      </c>
-      <c r="C452" s="2" t="s">
-        <v>904</v>
       </c>
       <c r="D452" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41395,10 +41395,10 @@
         <v>452</v>
       </c>
       <c r="B453" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="C453" s="2" t="s">
         <v>905</v>
-      </c>
-      <c r="C453" s="2" t="s">
-        <v>906</v>
       </c>
       <c r="D453" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41411,10 +41411,10 @@
         <v>453</v>
       </c>
       <c r="B454" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="C454" s="2" t="s">
         <v>907</v>
-      </c>
-      <c r="C454" s="2" t="s">
-        <v>908</v>
       </c>
       <c r="D454" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41427,10 +41427,10 @@
         <v>454</v>
       </c>
       <c r="B455" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="C455" s="2" t="s">
         <v>909</v>
-      </c>
-      <c r="C455" s="2" t="s">
-        <v>910</v>
       </c>
       <c r="D455" s="3">
         <v>2.9999999999999997E-4</v>
@@ -41443,10 +41443,10 @@
         <v>455</v>
       </c>
       <c r="B456" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="C456" s="2" t="s">
         <v>911</v>
-      </c>
-      <c r="C456" s="2" t="s">
-        <v>912</v>
       </c>
       <c r="D456" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41459,10 +41459,10 @@
         <v>456</v>
       </c>
       <c r="B457" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="C457" s="2" t="s">
         <v>913</v>
-      </c>
-      <c r="C457" s="2" t="s">
-        <v>914</v>
       </c>
       <c r="D457" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41475,10 +41475,10 @@
         <v>457</v>
       </c>
       <c r="B458" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="C458" s="2" t="s">
         <v>915</v>
-      </c>
-      <c r="C458" s="2" t="s">
-        <v>916</v>
       </c>
       <c r="D458" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41491,10 +41491,10 @@
         <v>458</v>
       </c>
       <c r="B459" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="C459" s="2" t="s">
         <v>917</v>
-      </c>
-      <c r="C459" s="2" t="s">
-        <v>918</v>
       </c>
       <c r="D459" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41507,10 +41507,10 @@
         <v>459</v>
       </c>
       <c r="B460" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="C460" s="2" t="s">
         <v>919</v>
-      </c>
-      <c r="C460" s="2" t="s">
-        <v>920</v>
       </c>
       <c r="D460" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41523,10 +41523,10 @@
         <v>460</v>
       </c>
       <c r="B461" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="C461" s="2" t="s">
         <v>921</v>
-      </c>
-      <c r="C461" s="2" t="s">
-        <v>922</v>
       </c>
       <c r="D461" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41539,10 +41539,10 @@
         <v>461</v>
       </c>
       <c r="B462" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="C462" s="2" t="s">
         <v>923</v>
-      </c>
-      <c r="C462" s="2" t="s">
-        <v>924</v>
       </c>
       <c r="D462" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41555,10 +41555,10 @@
         <v>462</v>
       </c>
       <c r="B463" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="C463" s="2" t="s">
         <v>925</v>
-      </c>
-      <c r="C463" s="2" t="s">
-        <v>926</v>
       </c>
       <c r="D463" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41571,10 +41571,10 @@
         <v>463</v>
       </c>
       <c r="B464" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="C464" s="2" t="s">
         <v>927</v>
-      </c>
-      <c r="C464" s="2" t="s">
-        <v>928</v>
       </c>
       <c r="D464" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41587,10 +41587,10 @@
         <v>464</v>
       </c>
       <c r="B465" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C465" s="2" t="s">
         <v>929</v>
-      </c>
-      <c r="C465" s="2" t="s">
-        <v>930</v>
       </c>
       <c r="D465" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41603,10 +41603,10 @@
         <v>465</v>
       </c>
       <c r="B466" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="C466" s="2" t="s">
         <v>931</v>
-      </c>
-      <c r="C466" s="2" t="s">
-        <v>932</v>
       </c>
       <c r="D466" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41619,10 +41619,10 @@
         <v>466</v>
       </c>
       <c r="B467" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="C467" s="2" t="s">
         <v>933</v>
-      </c>
-      <c r="C467" s="2" t="s">
-        <v>934</v>
       </c>
       <c r="D467" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41635,10 +41635,10 @@
         <v>467</v>
       </c>
       <c r="B468" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="C468" s="2" t="s">
         <v>935</v>
-      </c>
-      <c r="C468" s="2" t="s">
-        <v>936</v>
       </c>
       <c r="D468" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41651,10 +41651,10 @@
         <v>468</v>
       </c>
       <c r="B469" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="C469" s="2" t="s">
         <v>937</v>
-      </c>
-      <c r="C469" s="2" t="s">
-        <v>938</v>
       </c>
       <c r="D469" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41667,10 +41667,10 @@
         <v>469</v>
       </c>
       <c r="B470" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="C470" s="2" t="s">
         <v>939</v>
-      </c>
-      <c r="C470" s="2" t="s">
-        <v>940</v>
       </c>
       <c r="D470" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41683,10 +41683,10 @@
         <v>470</v>
       </c>
       <c r="B471" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="C471" s="2" t="s">
         <v>941</v>
-      </c>
-      <c r="C471" s="2" t="s">
-        <v>942</v>
       </c>
       <c r="D471" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41699,10 +41699,10 @@
         <v>471</v>
       </c>
       <c r="B472" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C472" s="2" t="s">
         <v>943</v>
-      </c>
-      <c r="C472" s="2" t="s">
-        <v>944</v>
       </c>
       <c r="D472" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41715,10 +41715,10 @@
         <v>472</v>
       </c>
       <c r="B473" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="C473" s="2" t="s">
         <v>945</v>
-      </c>
-      <c r="C473" s="2" t="s">
-        <v>946</v>
       </c>
       <c r="D473" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41731,10 +41731,10 @@
         <v>473</v>
       </c>
       <c r="B474" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C474" s="2" t="s">
         <v>947</v>
-      </c>
-      <c r="C474" s="2" t="s">
-        <v>948</v>
       </c>
       <c r="D474" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41747,10 +41747,10 @@
         <v>474</v>
       </c>
       <c r="B475" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="C475" s="2" t="s">
         <v>949</v>
-      </c>
-      <c r="C475" s="2" t="s">
-        <v>950</v>
       </c>
       <c r="D475" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41763,10 +41763,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="C476" s="2" t="s">
         <v>951</v>
-      </c>
-      <c r="C476" s="2" t="s">
-        <v>952</v>
       </c>
       <c r="D476" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41779,10 +41779,10 @@
         <v>476</v>
       </c>
       <c r="B477" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="C477" s="2" t="s">
         <v>953</v>
-      </c>
-      <c r="C477" s="2" t="s">
-        <v>954</v>
       </c>
       <c r="D477" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41795,10 +41795,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="C478" s="2" t="s">
         <v>955</v>
-      </c>
-      <c r="C478" s="2" t="s">
-        <v>956</v>
       </c>
       <c r="D478" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41811,10 +41811,10 @@
         <v>478</v>
       </c>
       <c r="B479" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="C479" s="2" t="s">
         <v>957</v>
-      </c>
-      <c r="C479" s="2" t="s">
-        <v>958</v>
       </c>
       <c r="D479" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41827,10 +41827,10 @@
         <v>479</v>
       </c>
       <c r="B480" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="C480" s="2" t="s">
         <v>959</v>
-      </c>
-      <c r="C480" s="2" t="s">
-        <v>960</v>
       </c>
       <c r="D480" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41843,10 +41843,10 @@
         <v>480</v>
       </c>
       <c r="B481" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="C481" s="2" t="s">
         <v>961</v>
-      </c>
-      <c r="C481" s="2" t="s">
-        <v>962</v>
       </c>
       <c r="D481" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41859,10 +41859,10 @@
         <v>481</v>
       </c>
       <c r="B482" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C482" s="2" t="s">
         <v>963</v>
-      </c>
-      <c r="C482" s="2" t="s">
-        <v>964</v>
       </c>
       <c r="D482" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41875,10 +41875,10 @@
         <v>482</v>
       </c>
       <c r="B483" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="C483" s="2" t="s">
         <v>965</v>
-      </c>
-      <c r="C483" s="2" t="s">
-        <v>966</v>
       </c>
       <c r="D483" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41891,10 +41891,10 @@
         <v>483</v>
       </c>
       <c r="B484" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="C484" s="2" t="s">
         <v>967</v>
-      </c>
-      <c r="C484" s="2" t="s">
-        <v>968</v>
       </c>
       <c r="D484" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41907,10 +41907,10 @@
         <v>484</v>
       </c>
       <c r="B485" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="C485" s="2" t="s">
         <v>969</v>
-      </c>
-      <c r="C485" s="2" t="s">
-        <v>970</v>
       </c>
       <c r="D485" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41923,10 +41923,10 @@
         <v>485</v>
       </c>
       <c r="B486" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="C486" s="2" t="s">
         <v>971</v>
-      </c>
-      <c r="C486" s="2" t="s">
-        <v>972</v>
       </c>
       <c r="D486" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41939,10 +41939,10 @@
         <v>486</v>
       </c>
       <c r="B487" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="C487" s="2" t="s">
         <v>973</v>
-      </c>
-      <c r="C487" s="2" t="s">
-        <v>974</v>
       </c>
       <c r="D487" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41955,10 +41955,10 @@
         <v>487</v>
       </c>
       <c r="B488" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="C488" s="2" t="s">
         <v>975</v>
-      </c>
-      <c r="C488" s="2" t="s">
-        <v>976</v>
       </c>
       <c r="D488" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41971,10 +41971,10 @@
         <v>488</v>
       </c>
       <c r="B489" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="C489" s="2" t="s">
         <v>977</v>
-      </c>
-      <c r="C489" s="2" t="s">
-        <v>978</v>
       </c>
       <c r="D489" s="3">
         <v>2.0000000000000001E-4</v>
@@ -41987,10 +41987,10 @@
         <v>489</v>
       </c>
       <c r="B490" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="C490" s="2" t="s">
         <v>979</v>
-      </c>
-      <c r="C490" s="2" t="s">
-        <v>980</v>
       </c>
       <c r="D490" s="3">
         <v>2.0000000000000001E-4</v>
@@ -42003,10 +42003,10 @@
         <v>490</v>
       </c>
       <c r="B491" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="C491" s="2" t="s">
         <v>981</v>
-      </c>
-      <c r="C491" s="2" t="s">
-        <v>982</v>
       </c>
       <c r="D491" s="3">
         <v>2.0000000000000001E-4</v>
@@ -42019,10 +42019,10 @@
         <v>491</v>
       </c>
       <c r="B492" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="C492" s="2" t="s">
         <v>983</v>
-      </c>
-      <c r="C492" s="2" t="s">
-        <v>984</v>
       </c>
       <c r="D492" s="3">
         <v>2.0000000000000001E-4</v>
@@ -42035,10 +42035,10 @@
         <v>492</v>
       </c>
       <c r="B493" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="C493" s="2" t="s">
         <v>985</v>
-      </c>
-      <c r="C493" s="2" t="s">
-        <v>986</v>
       </c>
       <c r="D493" s="3">
         <v>2.0000000000000001E-4</v>
@@ -42051,10 +42051,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="C494" s="2" t="s">
         <v>987</v>
-      </c>
-      <c r="C494" s="2" t="s">
-        <v>988</v>
       </c>
       <c r="D494" s="3">
         <v>1E-4</v>
@@ -42067,10 +42067,10 @@
         <v>494</v>
       </c>
       <c r="B495" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="C495" s="2" t="s">
         <v>989</v>
-      </c>
-      <c r="C495" s="2" t="s">
-        <v>990</v>
       </c>
       <c r="D495" s="3">
         <v>1E-4</v>
@@ -42083,10 +42083,10 @@
         <v>495</v>
       </c>
       <c r="B496" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="C496" s="2" t="s">
         <v>991</v>
-      </c>
-      <c r="C496" s="2" t="s">
-        <v>992</v>
       </c>
       <c r="D496" s="3">
         <v>1E-4</v>
@@ -42099,10 +42099,10 @@
         <v>496</v>
       </c>
       <c r="B497" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="C497" s="2" t="s">
         <v>993</v>
-      </c>
-      <c r="C497" s="2" t="s">
-        <v>994</v>
       </c>
       <c r="D497" s="3">
         <v>1E-4</v>
@@ -42115,10 +42115,10 @@
         <v>497</v>
       </c>
       <c r="B498" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="C498" s="2" t="s">
         <v>995</v>
-      </c>
-      <c r="C498" s="2" t="s">
-        <v>996</v>
       </c>
       <c r="D498" s="3">
         <v>1E-4</v>
@@ -42131,10 +42131,10 @@
         <v>498</v>
       </c>
       <c r="B499" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="C499" s="2" t="s">
         <v>997</v>
-      </c>
-      <c r="C499" s="2" t="s">
-        <v>998</v>
       </c>
       <c r="D499" s="3">
         <v>1E-4</v>
@@ -42147,10 +42147,10 @@
         <v>499</v>
       </c>
       <c r="B500" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="C500" s="2" t="s">
         <v>999</v>
-      </c>
-      <c r="C500" s="2" t="s">
-        <v>1000</v>
       </c>
       <c r="D500" s="3">
         <v>1E-4</v>
@@ -42163,10 +42163,10 @@
         <v>500</v>
       </c>
       <c r="B501" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C501" s="2" t="s">
         <v>1001</v>
-      </c>
-      <c r="C501" s="2" t="s">
-        <v>1002</v>
       </c>
       <c r="D501" s="3">
         <v>1E-4</v>
@@ -42179,10 +42179,10 @@
         <v>501</v>
       </c>
       <c r="B502" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C502" s="2" t="s">
         <v>1003</v>
-      </c>
-      <c r="C502" s="2" t="s">
-        <v>1004</v>
       </c>
       <c r="D502" s="3">
         <v>1E-4</v>
@@ -42195,10 +42195,10 @@
         <v>502</v>
       </c>
       <c r="B503" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C503" s="2" t="s">
         <v>1005</v>
-      </c>
-      <c r="C503" s="2" t="s">
-        <v>1006</v>
       </c>
       <c r="D503" s="3">
         <v>1E-4</v>
@@ -42211,10 +42211,10 @@
         <v>503</v>
       </c>
       <c r="B504" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C504" s="2" t="s">
         <v>1007</v>
-      </c>
-      <c r="C504" s="2" t="s">
-        <v>1008</v>
       </c>
       <c r="D504" s="3">
         <v>1E-4</v>
